--- a/data/134/DEUSTATIS/Persons employed in wholesale trade.xlsx
+++ b/data/134/DEUSTATIS/Persons employed in wholesale trade.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="67">
   <si>
     <t>Persons employed in wholesale trade (measuring values and
 rates of change): Germany, months/quarters/half-years,
@@ -128,6 +128,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Months</t>
   </si>
   <si>
@@ -221,7 +224,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:01:04</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:38:14</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2055">
+  <cellXfs count="2127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -2307,6 +2310,54 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -3659,6 +3710,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -5039,6 +5138,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -6391,6 +6538,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -7743,6 +7938,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -7753,6 +7996,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -9134,2166 +9425,2242 @@
       </c>
     </row>
     <row r="4" ht="107.25" customHeight="true">
-      <c r="A4" t="s" s="703">
+      <c r="A4" t="s" s="727">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="704">
+      <c r="B4" t="s" s="728">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="705">
+      <c r="C4" t="s" s="729">
         <v>5</v>
       </c>
-      <c r="D4" s="706"/>
-      <c r="E4" s="707"/>
-      <c r="F4" s="708"/>
-      <c r="G4" s="709"/>
-      <c r="H4" s="710"/>
-      <c r="I4" s="711"/>
-      <c r="J4" s="712"/>
-      <c r="K4" s="713"/>
-      <c r="L4" s="714"/>
-      <c r="M4" s="715"/>
-      <c r="N4" s="716"/>
-      <c r="O4" s="717"/>
-      <c r="P4" s="718"/>
-      <c r="Q4" s="719"/>
-      <c r="R4" s="720"/>
-      <c r="S4" s="721"/>
-      <c r="T4" s="722"/>
-      <c r="U4" s="723"/>
-      <c r="V4" s="724"/>
-      <c r="W4" s="725"/>
-      <c r="X4" s="726"/>
-      <c r="Y4" s="727"/>
-      <c r="Z4" s="728"/>
-      <c r="AA4" s="729"/>
-      <c r="AB4" s="730"/>
-      <c r="AC4" s="731"/>
-      <c r="AD4" s="732"/>
-      <c r="AE4" s="733"/>
-      <c r="AF4" s="734"/>
-      <c r="AG4" s="735"/>
-      <c r="AH4" s="736"/>
-      <c r="AI4" s="737"/>
-      <c r="AJ4" s="738"/>
-      <c r="AK4" s="739"/>
-      <c r="AL4" s="740"/>
-      <c r="AM4" s="741"/>
-      <c r="AN4" s="742"/>
-      <c r="AO4" s="743"/>
-      <c r="AP4" s="744"/>
-      <c r="AQ4" s="745"/>
-      <c r="AR4" s="746"/>
-      <c r="AS4" s="747"/>
-      <c r="AT4" s="748"/>
-      <c r="AU4" s="749"/>
-      <c r="AV4" s="750"/>
-      <c r="AW4" s="751"/>
-      <c r="AX4" s="752"/>
-      <c r="AY4" s="753"/>
-      <c r="AZ4" s="754"/>
-      <c r="BA4" s="755"/>
-      <c r="BB4" s="756"/>
-      <c r="BC4" s="757"/>
-      <c r="BD4" s="758"/>
-      <c r="BE4" s="759"/>
-      <c r="BF4" s="760"/>
-      <c r="BG4" s="761"/>
-      <c r="BH4" s="762"/>
-      <c r="BI4" s="763"/>
-      <c r="BJ4" s="764"/>
-      <c r="BK4" s="765"/>
-      <c r="BL4" s="766"/>
-      <c r="BM4" s="767"/>
-      <c r="BN4" s="768"/>
-      <c r="BO4" s="769"/>
-      <c r="BP4" s="770"/>
-      <c r="BQ4" s="771"/>
-      <c r="BR4" s="772"/>
-      <c r="BS4" s="773"/>
-      <c r="BT4" s="774"/>
-      <c r="BU4" s="775"/>
-      <c r="BV4" s="776"/>
-      <c r="BW4" s="777"/>
-      <c r="BX4" s="778"/>
-      <c r="BY4" s="779"/>
-      <c r="BZ4" s="780"/>
-      <c r="CA4" s="781"/>
-      <c r="CB4" s="782"/>
-      <c r="CC4" s="783"/>
-      <c r="CD4" s="784"/>
-      <c r="CE4" s="785"/>
-      <c r="CF4" s="786"/>
-      <c r="CG4" s="787"/>
-      <c r="CH4" s="788"/>
-      <c r="CI4" s="789"/>
-      <c r="CJ4" s="790"/>
-      <c r="CK4" s="791"/>
-      <c r="CL4" s="792"/>
-      <c r="CM4" s="793"/>
-      <c r="CN4" s="794"/>
-      <c r="CO4" s="795"/>
-      <c r="CP4" s="796"/>
-      <c r="CQ4" s="797"/>
-      <c r="CR4" s="798"/>
-      <c r="CS4" s="799"/>
-      <c r="CT4" s="800"/>
-      <c r="CU4" s="801"/>
-      <c r="CV4" s="802"/>
-      <c r="CW4" s="803"/>
-      <c r="CX4" s="804"/>
-      <c r="CY4" s="805"/>
-      <c r="CZ4" s="806"/>
-      <c r="DA4" s="807"/>
-      <c r="DB4" s="808"/>
-      <c r="DC4" s="809"/>
-      <c r="DD4" s="810"/>
-      <c r="DE4" s="811"/>
-      <c r="DF4" s="812"/>
-      <c r="DG4" s="813"/>
-      <c r="DH4" s="814"/>
-      <c r="DI4" s="815"/>
-      <c r="DJ4" s="816"/>
-      <c r="DK4" s="817"/>
-      <c r="DL4" s="818"/>
-      <c r="DM4" s="819"/>
-      <c r="DN4" s="820"/>
-      <c r="DO4" s="821"/>
-      <c r="DP4" s="822"/>
-      <c r="DQ4" s="823"/>
-      <c r="DR4" s="824"/>
-      <c r="DS4" s="825"/>
-      <c r="DT4" s="826"/>
-      <c r="DU4" s="827"/>
-      <c r="DV4" s="828"/>
-      <c r="DW4" s="829"/>
-      <c r="DX4" s="830"/>
-      <c r="DY4" s="831"/>
-      <c r="DZ4" s="832"/>
-      <c r="EA4" s="833"/>
-      <c r="EB4" s="834"/>
-      <c r="EC4" s="835"/>
-      <c r="ED4" s="836"/>
-      <c r="EE4" s="837"/>
-      <c r="EF4" s="838"/>
-      <c r="EG4" s="839"/>
-      <c r="EH4" s="840"/>
-      <c r="EI4" s="841"/>
-      <c r="EJ4" s="842"/>
-      <c r="EK4" s="843"/>
-      <c r="EL4" s="844"/>
-      <c r="EM4" s="845"/>
-      <c r="EN4" s="846"/>
-      <c r="EO4" s="847"/>
-      <c r="EP4" s="848"/>
-      <c r="EQ4" s="849"/>
-      <c r="ER4" s="850"/>
-      <c r="ES4" s="851"/>
-      <c r="ET4" s="852"/>
-      <c r="EU4" s="853"/>
-      <c r="EV4" s="854"/>
-      <c r="EW4" s="855"/>
-      <c r="EX4" s="856"/>
-      <c r="EY4" s="857"/>
-      <c r="EZ4" s="858"/>
-      <c r="FA4" s="859"/>
-      <c r="FB4" s="860"/>
-      <c r="FC4" s="861"/>
-      <c r="FD4" s="862"/>
-      <c r="FE4" s="863"/>
-      <c r="FF4" s="864"/>
-      <c r="FG4" s="865"/>
-      <c r="FH4" s="866"/>
-      <c r="FI4" s="867"/>
-      <c r="FJ4" s="868"/>
-      <c r="FK4" s="869"/>
-      <c r="FL4" s="870"/>
-      <c r="FM4" s="871"/>
-      <c r="FN4" s="872"/>
-      <c r="FO4" s="873"/>
-      <c r="FP4" s="874"/>
-      <c r="FQ4" s="875"/>
-      <c r="FR4" s="876"/>
-      <c r="FS4" s="877"/>
-      <c r="FT4" s="878"/>
-      <c r="FU4" s="879"/>
-      <c r="FV4" s="880"/>
-      <c r="FW4" s="881"/>
-      <c r="FX4" s="882"/>
-      <c r="FY4" s="883"/>
-      <c r="FZ4" s="884"/>
-      <c r="GA4" s="885"/>
-      <c r="GB4" s="886"/>
-      <c r="GC4" s="887"/>
-      <c r="GD4" s="888"/>
-      <c r="GE4" s="889"/>
-      <c r="GF4" s="890"/>
-      <c r="GG4" s="891"/>
-      <c r="GH4" s="892"/>
-      <c r="GI4" s="893"/>
-      <c r="GJ4" s="894"/>
-      <c r="GK4" s="895"/>
-      <c r="GL4" s="896"/>
-      <c r="GM4" s="897"/>
-      <c r="GN4" s="898"/>
-      <c r="GO4" s="899"/>
-      <c r="GP4" s="900"/>
-      <c r="GQ4" s="901"/>
-      <c r="GR4" s="902"/>
-      <c r="GS4" s="903"/>
-      <c r="GT4" s="904"/>
-      <c r="GU4" s="905"/>
-      <c r="GV4" s="906"/>
-      <c r="GW4" s="907"/>
-      <c r="GX4" s="908"/>
-      <c r="GY4" s="909"/>
-      <c r="GZ4" s="910"/>
-      <c r="HA4" s="911"/>
-      <c r="HB4" s="912"/>
-      <c r="HC4" s="913"/>
-      <c r="HD4" s="914"/>
-      <c r="HE4" s="915"/>
-      <c r="HF4" s="916"/>
-      <c r="HG4" s="917"/>
-      <c r="HH4" s="918"/>
-      <c r="HI4" s="919"/>
-      <c r="HJ4" s="920"/>
-      <c r="HK4" s="921"/>
-      <c r="HL4" s="922"/>
-      <c r="HM4" s="923"/>
-      <c r="HN4" s="924"/>
-      <c r="HO4" s="925"/>
-      <c r="HP4" s="926"/>
-      <c r="HQ4" s="927"/>
-      <c r="HR4" s="928"/>
-      <c r="HS4" s="929"/>
-      <c r="HT4" s="930"/>
-      <c r="HU4" s="931"/>
-      <c r="HV4" s="932"/>
-      <c r="HW4" s="933"/>
-      <c r="HX4" s="934"/>
-      <c r="HY4" s="935"/>
-      <c r="HZ4" s="936"/>
-      <c r="IA4" s="937"/>
-      <c r="IB4" s="938"/>
-      <c r="IC4" s="939"/>
-      <c r="ID4" s="940"/>
-      <c r="IE4" s="941"/>
-      <c r="IF4" s="942"/>
-      <c r="IG4" s="943"/>
-      <c r="IH4" s="944"/>
-      <c r="II4" s="945"/>
-      <c r="IJ4" s="946"/>
-      <c r="IK4" s="947"/>
-      <c r="IL4" s="948"/>
-      <c r="IM4" s="949"/>
-      <c r="IN4" s="950"/>
-      <c r="IO4" s="951"/>
-      <c r="IP4" s="952"/>
-      <c r="IQ4" s="953"/>
-      <c r="IR4" s="954"/>
-      <c r="IS4" s="955"/>
-      <c r="IT4" s="956"/>
-      <c r="IU4" s="957"/>
-      <c r="IV4" s="958"/>
-      <c r="IW4" s="959"/>
-      <c r="IX4" s="960"/>
-      <c r="IY4" s="961"/>
-      <c r="IZ4" s="962"/>
-      <c r="JA4" s="963"/>
-      <c r="JB4" s="964"/>
-      <c r="JC4" s="965"/>
-      <c r="JD4" s="966"/>
-      <c r="JE4" s="967"/>
-      <c r="JF4" s="968"/>
-      <c r="JG4" s="969"/>
-      <c r="JH4" s="970"/>
-      <c r="JI4" s="971"/>
-      <c r="JJ4" s="972"/>
-      <c r="JK4" s="973"/>
-      <c r="JL4" s="974"/>
-      <c r="JM4" s="975"/>
-      <c r="JN4" s="976"/>
-      <c r="JO4" s="977"/>
-      <c r="JP4" s="978"/>
-      <c r="JQ4" s="979"/>
-      <c r="JR4" s="980"/>
-      <c r="JS4" s="981"/>
-      <c r="JT4" s="982"/>
-      <c r="JU4" s="983"/>
-      <c r="JV4" s="984"/>
-      <c r="JW4" s="985"/>
-      <c r="JX4" s="986"/>
-      <c r="JY4" s="987"/>
-      <c r="JZ4" s="988"/>
-      <c r="KA4" s="989"/>
-      <c r="KB4" s="990"/>
-      <c r="KC4" s="991"/>
-      <c r="KD4" s="992"/>
-      <c r="KE4" s="993"/>
-      <c r="KF4" s="994"/>
-      <c r="KG4" s="995"/>
-      <c r="KH4" s="996"/>
-      <c r="KI4" s="997"/>
-      <c r="KJ4" s="998"/>
-      <c r="KK4" s="999"/>
-      <c r="KL4" s="1000"/>
-      <c r="KM4" s="1001"/>
-      <c r="KN4" s="1002"/>
-      <c r="KO4" s="1003"/>
-      <c r="KP4" s="1004"/>
-      <c r="KQ4" s="1005"/>
-      <c r="KR4" s="1006"/>
-      <c r="KS4" s="1007"/>
-      <c r="KT4" s="1008"/>
-      <c r="KU4" s="1009"/>
-      <c r="KV4" s="1010"/>
-      <c r="KW4" s="1011"/>
-      <c r="KX4" s="1012"/>
-      <c r="KY4" s="1013"/>
-      <c r="KZ4" s="1014"/>
-      <c r="LA4" s="1015"/>
-      <c r="LB4" s="1016"/>
-      <c r="LC4" s="1017"/>
-      <c r="LD4" s="1018"/>
-      <c r="LE4" s="1019"/>
-      <c r="LF4" s="1020"/>
-      <c r="LG4" s="1021"/>
-      <c r="LH4" s="1022"/>
-      <c r="LI4" s="1023"/>
-      <c r="LJ4" s="1024"/>
-      <c r="LK4" s="1025"/>
-      <c r="LL4" s="1026"/>
-      <c r="LM4" s="1027"/>
-      <c r="LN4" s="1028"/>
-      <c r="LO4" s="1029"/>
-      <c r="LP4" s="1030"/>
-      <c r="LQ4" s="1031"/>
-      <c r="LR4" s="1032"/>
-      <c r="LS4" s="1033"/>
-      <c r="LT4" s="1034"/>
-      <c r="LU4" s="1035"/>
-      <c r="LV4" s="1036"/>
-      <c r="LW4" s="1037"/>
-      <c r="LX4" s="1038"/>
-      <c r="LY4" s="1039"/>
-      <c r="LZ4" s="1040"/>
+      <c r="D4" s="730"/>
+      <c r="E4" s="731"/>
+      <c r="F4" s="732"/>
+      <c r="G4" s="733"/>
+      <c r="H4" s="734"/>
+      <c r="I4" s="735"/>
+      <c r="J4" s="736"/>
+      <c r="K4" s="737"/>
+      <c r="L4" s="738"/>
+      <c r="M4" s="739"/>
+      <c r="N4" s="740"/>
+      <c r="O4" s="741"/>
+      <c r="P4" s="742"/>
+      <c r="Q4" s="743"/>
+      <c r="R4" s="744"/>
+      <c r="S4" s="745"/>
+      <c r="T4" s="746"/>
+      <c r="U4" s="747"/>
+      <c r="V4" s="748"/>
+      <c r="W4" s="749"/>
+      <c r="X4" s="750"/>
+      <c r="Y4" s="751"/>
+      <c r="Z4" s="752"/>
+      <c r="AA4" s="753"/>
+      <c r="AB4" s="754"/>
+      <c r="AC4" s="755"/>
+      <c r="AD4" s="756"/>
+      <c r="AE4" s="757"/>
+      <c r="AF4" s="758"/>
+      <c r="AG4" s="759"/>
+      <c r="AH4" s="760"/>
+      <c r="AI4" s="761"/>
+      <c r="AJ4" s="762"/>
+      <c r="AK4" s="763"/>
+      <c r="AL4" s="764"/>
+      <c r="AM4" s="765"/>
+      <c r="AN4" s="766"/>
+      <c r="AO4" s="767"/>
+      <c r="AP4" s="768"/>
+      <c r="AQ4" s="769"/>
+      <c r="AR4" s="770"/>
+      <c r="AS4" s="771"/>
+      <c r="AT4" s="772"/>
+      <c r="AU4" s="773"/>
+      <c r="AV4" s="774"/>
+      <c r="AW4" s="775"/>
+      <c r="AX4" s="776"/>
+      <c r="AY4" s="777"/>
+      <c r="AZ4" s="778"/>
+      <c r="BA4" s="779"/>
+      <c r="BB4" s="780"/>
+      <c r="BC4" s="781"/>
+      <c r="BD4" s="782"/>
+      <c r="BE4" s="783"/>
+      <c r="BF4" s="784"/>
+      <c r="BG4" s="785"/>
+      <c r="BH4" s="786"/>
+      <c r="BI4" s="787"/>
+      <c r="BJ4" s="788"/>
+      <c r="BK4" s="789"/>
+      <c r="BL4" s="790"/>
+      <c r="BM4" s="791"/>
+      <c r="BN4" s="792"/>
+      <c r="BO4" s="793"/>
+      <c r="BP4" s="794"/>
+      <c r="BQ4" s="795"/>
+      <c r="BR4" s="796"/>
+      <c r="BS4" s="797"/>
+      <c r="BT4" s="798"/>
+      <c r="BU4" s="799"/>
+      <c r="BV4" s="800"/>
+      <c r="BW4" s="801"/>
+      <c r="BX4" s="802"/>
+      <c r="BY4" s="803"/>
+      <c r="BZ4" s="804"/>
+      <c r="CA4" s="805"/>
+      <c r="CB4" s="806"/>
+      <c r="CC4" s="807"/>
+      <c r="CD4" s="808"/>
+      <c r="CE4" s="809"/>
+      <c r="CF4" s="810"/>
+      <c r="CG4" s="811"/>
+      <c r="CH4" s="812"/>
+      <c r="CI4" s="813"/>
+      <c r="CJ4" s="814"/>
+      <c r="CK4" s="815"/>
+      <c r="CL4" s="816"/>
+      <c r="CM4" s="817"/>
+      <c r="CN4" s="818"/>
+      <c r="CO4" s="819"/>
+      <c r="CP4" s="820"/>
+      <c r="CQ4" s="821"/>
+      <c r="CR4" s="822"/>
+      <c r="CS4" s="823"/>
+      <c r="CT4" s="824"/>
+      <c r="CU4" s="825"/>
+      <c r="CV4" s="826"/>
+      <c r="CW4" s="827"/>
+      <c r="CX4" s="828"/>
+      <c r="CY4" s="829"/>
+      <c r="CZ4" s="830"/>
+      <c r="DA4" s="831"/>
+      <c r="DB4" s="832"/>
+      <c r="DC4" s="833"/>
+      <c r="DD4" s="834"/>
+      <c r="DE4" s="835"/>
+      <c r="DF4" s="836"/>
+      <c r="DG4" s="837"/>
+      <c r="DH4" s="838"/>
+      <c r="DI4" s="839"/>
+      <c r="DJ4" s="840"/>
+      <c r="DK4" s="841"/>
+      <c r="DL4" s="842"/>
+      <c r="DM4" s="843"/>
+      <c r="DN4" s="844"/>
+      <c r="DO4" s="845"/>
+      <c r="DP4" s="846"/>
+      <c r="DQ4" s="847"/>
+      <c r="DR4" s="848"/>
+      <c r="DS4" s="849"/>
+      <c r="DT4" s="850"/>
+      <c r="DU4" s="851"/>
+      <c r="DV4" s="852"/>
+      <c r="DW4" s="853"/>
+      <c r="DX4" s="854"/>
+      <c r="DY4" s="855"/>
+      <c r="DZ4" s="856"/>
+      <c r="EA4" s="857"/>
+      <c r="EB4" s="858"/>
+      <c r="EC4" s="859"/>
+      <c r="ED4" s="860"/>
+      <c r="EE4" s="861"/>
+      <c r="EF4" s="862"/>
+      <c r="EG4" s="863"/>
+      <c r="EH4" s="864"/>
+      <c r="EI4" s="865"/>
+      <c r="EJ4" s="866"/>
+      <c r="EK4" s="867"/>
+      <c r="EL4" s="868"/>
+      <c r="EM4" s="869"/>
+      <c r="EN4" s="870"/>
+      <c r="EO4" s="871"/>
+      <c r="EP4" s="872"/>
+      <c r="EQ4" s="873"/>
+      <c r="ER4" s="874"/>
+      <c r="ES4" s="875"/>
+      <c r="ET4" s="876"/>
+      <c r="EU4" s="877"/>
+      <c r="EV4" s="878"/>
+      <c r="EW4" s="879"/>
+      <c r="EX4" s="880"/>
+      <c r="EY4" s="881"/>
+      <c r="EZ4" s="882"/>
+      <c r="FA4" s="883"/>
+      <c r="FB4" s="884"/>
+      <c r="FC4" s="885"/>
+      <c r="FD4" s="886"/>
+      <c r="FE4" s="887"/>
+      <c r="FF4" s="888"/>
+      <c r="FG4" s="889"/>
+      <c r="FH4" s="890"/>
+      <c r="FI4" s="891"/>
+      <c r="FJ4" s="892"/>
+      <c r="FK4" s="893"/>
+      <c r="FL4" s="894"/>
+      <c r="FM4" s="895"/>
+      <c r="FN4" s="896"/>
+      <c r="FO4" s="897"/>
+      <c r="FP4" s="898"/>
+      <c r="FQ4" s="899"/>
+      <c r="FR4" s="900"/>
+      <c r="FS4" s="901"/>
+      <c r="FT4" s="902"/>
+      <c r="FU4" s="903"/>
+      <c r="FV4" s="904"/>
+      <c r="FW4" s="905"/>
+      <c r="FX4" s="906"/>
+      <c r="FY4" s="907"/>
+      <c r="FZ4" s="908"/>
+      <c r="GA4" s="909"/>
+      <c r="GB4" s="910"/>
+      <c r="GC4" s="911"/>
+      <c r="GD4" s="912"/>
+      <c r="GE4" s="913"/>
+      <c r="GF4" s="914"/>
+      <c r="GG4" s="915"/>
+      <c r="GH4" s="916"/>
+      <c r="GI4" s="917"/>
+      <c r="GJ4" s="918"/>
+      <c r="GK4" s="919"/>
+      <c r="GL4" s="920"/>
+      <c r="GM4" s="921"/>
+      <c r="GN4" s="922"/>
+      <c r="GO4" s="923"/>
+      <c r="GP4" s="924"/>
+      <c r="GQ4" s="925"/>
+      <c r="GR4" s="926"/>
+      <c r="GS4" s="927"/>
+      <c r="GT4" s="928"/>
+      <c r="GU4" s="929"/>
+      <c r="GV4" s="930"/>
+      <c r="GW4" s="931"/>
+      <c r="GX4" s="932"/>
+      <c r="GY4" s="933"/>
+      <c r="GZ4" s="934"/>
+      <c r="HA4" s="935"/>
+      <c r="HB4" s="936"/>
+      <c r="HC4" s="937"/>
+      <c r="HD4" s="938"/>
+      <c r="HE4" s="939"/>
+      <c r="HF4" s="940"/>
+      <c r="HG4" s="941"/>
+      <c r="HH4" s="942"/>
+      <c r="HI4" s="943"/>
+      <c r="HJ4" s="944"/>
+      <c r="HK4" s="945"/>
+      <c r="HL4" s="946"/>
+      <c r="HM4" s="947"/>
+      <c r="HN4" s="948"/>
+      <c r="HO4" s="949"/>
+      <c r="HP4" s="950"/>
+      <c r="HQ4" s="951"/>
+      <c r="HR4" s="952"/>
+      <c r="HS4" s="953"/>
+      <c r="HT4" s="954"/>
+      <c r="HU4" s="955"/>
+      <c r="HV4" s="956"/>
+      <c r="HW4" s="957"/>
+      <c r="HX4" s="958"/>
+      <c r="HY4" s="959"/>
+      <c r="HZ4" s="960"/>
+      <c r="IA4" s="961"/>
+      <c r="IB4" s="962"/>
+      <c r="IC4" s="963"/>
+      <c r="ID4" s="964"/>
+      <c r="IE4" s="965"/>
+      <c r="IF4" s="966"/>
+      <c r="IG4" s="967"/>
+      <c r="IH4" s="968"/>
+      <c r="II4" s="969"/>
+      <c r="IJ4" s="970"/>
+      <c r="IK4" s="971"/>
+      <c r="IL4" s="972"/>
+      <c r="IM4" s="973"/>
+      <c r="IN4" s="974"/>
+      <c r="IO4" s="975"/>
+      <c r="IP4" s="976"/>
+      <c r="IQ4" s="977"/>
+      <c r="IR4" s="978"/>
+      <c r="IS4" s="979"/>
+      <c r="IT4" s="980"/>
+      <c r="IU4" s="981"/>
+      <c r="IV4" s="982"/>
+      <c r="IW4" s="983"/>
+      <c r="IX4" s="984"/>
+      <c r="IY4" s="985"/>
+      <c r="IZ4" s="986"/>
+      <c r="JA4" s="987"/>
+      <c r="JB4" s="988"/>
+      <c r="JC4" s="989"/>
+      <c r="JD4" s="990"/>
+      <c r="JE4" s="991"/>
+      <c r="JF4" s="992"/>
+      <c r="JG4" s="993"/>
+      <c r="JH4" s="994"/>
+      <c r="JI4" s="995"/>
+      <c r="JJ4" s="996"/>
+      <c r="JK4" s="997"/>
+      <c r="JL4" s="998"/>
+      <c r="JM4" s="999"/>
+      <c r="JN4" s="1000"/>
+      <c r="JO4" s="1001"/>
+      <c r="JP4" s="1002"/>
+      <c r="JQ4" s="1003"/>
+      <c r="JR4" s="1004"/>
+      <c r="JS4" s="1005"/>
+      <c r="JT4" s="1006"/>
+      <c r="JU4" s="1007"/>
+      <c r="JV4" s="1008"/>
+      <c r="JW4" s="1009"/>
+      <c r="JX4" s="1010"/>
+      <c r="JY4" s="1011"/>
+      <c r="JZ4" s="1012"/>
+      <c r="KA4" s="1013"/>
+      <c r="KB4" s="1014"/>
+      <c r="KC4" s="1015"/>
+      <c r="KD4" s="1016"/>
+      <c r="KE4" s="1017"/>
+      <c r="KF4" s="1018"/>
+      <c r="KG4" s="1019"/>
+      <c r="KH4" s="1020"/>
+      <c r="KI4" s="1021"/>
+      <c r="KJ4" s="1022"/>
+      <c r="KK4" s="1023"/>
+      <c r="KL4" s="1024"/>
+      <c r="KM4" s="1025"/>
+      <c r="KN4" s="1026"/>
+      <c r="KO4" s="1027"/>
+      <c r="KP4" s="1028"/>
+      <c r="KQ4" s="1029"/>
+      <c r="KR4" s="1030"/>
+      <c r="KS4" s="1031"/>
+      <c r="KT4" s="1032"/>
+      <c r="KU4" s="1033"/>
+      <c r="KV4" s="1034"/>
+      <c r="KW4" s="1035"/>
+      <c r="KX4" s="1036"/>
+      <c r="KY4" s="1037"/>
+      <c r="KZ4" s="1038"/>
+      <c r="LA4" s="1039"/>
+      <c r="LB4" s="1040"/>
+      <c r="LC4" s="1041"/>
+      <c r="LD4" s="1042"/>
+      <c r="LE4" s="1043"/>
+      <c r="LF4" s="1044"/>
+      <c r="LG4" s="1045"/>
+      <c r="LH4" s="1046"/>
+      <c r="LI4" s="1047"/>
+      <c r="LJ4" s="1048"/>
+      <c r="LK4" s="1049"/>
+      <c r="LL4" s="1050"/>
+      <c r="LM4" s="1051"/>
+      <c r="LN4" s="1052"/>
+      <c r="LO4" s="1053"/>
+      <c r="LP4" s="1054"/>
+      <c r="LQ4" s="1055"/>
+      <c r="LR4" s="1056"/>
+      <c r="LS4" s="1057"/>
+      <c r="LT4" s="1058"/>
+      <c r="LU4" s="1059"/>
+      <c r="LV4" s="1060"/>
+      <c r="LW4" s="1061"/>
+      <c r="LX4" s="1062"/>
+      <c r="LY4" s="1063"/>
+      <c r="LZ4" s="1064"/>
+      <c r="MA4" s="1065"/>
+      <c r="MB4" s="1066"/>
+      <c r="MC4" s="1067"/>
+      <c r="MD4" s="1068"/>
+      <c r="ME4" s="1069"/>
+      <c r="MF4" s="1070"/>
+      <c r="MG4" s="1071"/>
+      <c r="MH4" s="1072"/>
+      <c r="MI4" s="1073"/>
+      <c r="MJ4" s="1074"/>
+      <c r="MK4" s="1075"/>
+      <c r="ML4" s="1076"/>
     </row>
     <row r="5">
-      <c r="A5" s="1041"/>
-      <c r="B5" s="1042"/>
-      <c r="C5" t="s" s="1043">
+      <c r="A5" s="1077"/>
+      <c r="B5" s="1078"/>
+      <c r="C5" t="s" s="1079">
         <v>6</v>
       </c>
-      <c r="D5" s="1044"/>
-      <c r="E5" s="1045"/>
-      <c r="F5" s="1046"/>
-      <c r="G5" s="1047"/>
-      <c r="H5" s="1048"/>
-      <c r="I5" s="1049"/>
-      <c r="J5" s="1050"/>
-      <c r="K5" s="1051"/>
-      <c r="L5" s="1052"/>
-      <c r="M5" s="1053"/>
-      <c r="N5" s="1054"/>
-      <c r="O5" t="s" s="1055">
+      <c r="D5" s="1080"/>
+      <c r="E5" s="1081"/>
+      <c r="F5" s="1082"/>
+      <c r="G5" s="1083"/>
+      <c r="H5" s="1084"/>
+      <c r="I5" s="1085"/>
+      <c r="J5" s="1086"/>
+      <c r="K5" s="1087"/>
+      <c r="L5" s="1088"/>
+      <c r="M5" s="1089"/>
+      <c r="N5" s="1090"/>
+      <c r="O5" t="s" s="1091">
         <v>7</v>
       </c>
-      <c r="P5" s="1056"/>
-      <c r="Q5" s="1057"/>
-      <c r="R5" s="1058"/>
-      <c r="S5" s="1059"/>
-      <c r="T5" s="1060"/>
-      <c r="U5" s="1061"/>
-      <c r="V5" s="1062"/>
-      <c r="W5" s="1063"/>
-      <c r="X5" s="1064"/>
-      <c r="Y5" s="1065"/>
-      <c r="Z5" s="1066"/>
-      <c r="AA5" t="s" s="1067">
+      <c r="P5" s="1092"/>
+      <c r="Q5" s="1093"/>
+      <c r="R5" s="1094"/>
+      <c r="S5" s="1095"/>
+      <c r="T5" s="1096"/>
+      <c r="U5" s="1097"/>
+      <c r="V5" s="1098"/>
+      <c r="W5" s="1099"/>
+      <c r="X5" s="1100"/>
+      <c r="Y5" s="1101"/>
+      <c r="Z5" s="1102"/>
+      <c r="AA5" t="s" s="1103">
         <v>8</v>
       </c>
-      <c r="AB5" s="1068"/>
-      <c r="AC5" s="1069"/>
-      <c r="AD5" s="1070"/>
-      <c r="AE5" s="1071"/>
-      <c r="AF5" s="1072"/>
-      <c r="AG5" s="1073"/>
-      <c r="AH5" s="1074"/>
-      <c r="AI5" s="1075"/>
-      <c r="AJ5" s="1076"/>
-      <c r="AK5" s="1077"/>
-      <c r="AL5" s="1078"/>
-      <c r="AM5" t="s" s="1079">
+      <c r="AB5" s="1104"/>
+      <c r="AC5" s="1105"/>
+      <c r="AD5" s="1106"/>
+      <c r="AE5" s="1107"/>
+      <c r="AF5" s="1108"/>
+      <c r="AG5" s="1109"/>
+      <c r="AH5" s="1110"/>
+      <c r="AI5" s="1111"/>
+      <c r="AJ5" s="1112"/>
+      <c r="AK5" s="1113"/>
+      <c r="AL5" s="1114"/>
+      <c r="AM5" t="s" s="1115">
         <v>9</v>
       </c>
-      <c r="AN5" s="1080"/>
-      <c r="AO5" s="1081"/>
-      <c r="AP5" s="1082"/>
-      <c r="AQ5" s="1083"/>
-      <c r="AR5" s="1084"/>
-      <c r="AS5" s="1085"/>
-      <c r="AT5" s="1086"/>
-      <c r="AU5" s="1087"/>
-      <c r="AV5" s="1088"/>
-      <c r="AW5" s="1089"/>
-      <c r="AX5" s="1090"/>
-      <c r="AY5" t="s" s="1091">
+      <c r="AN5" s="1116"/>
+      <c r="AO5" s="1117"/>
+      <c r="AP5" s="1118"/>
+      <c r="AQ5" s="1119"/>
+      <c r="AR5" s="1120"/>
+      <c r="AS5" s="1121"/>
+      <c r="AT5" s="1122"/>
+      <c r="AU5" s="1123"/>
+      <c r="AV5" s="1124"/>
+      <c r="AW5" s="1125"/>
+      <c r="AX5" s="1126"/>
+      <c r="AY5" t="s" s="1127">
         <v>10</v>
       </c>
-      <c r="AZ5" s="1092"/>
-      <c r="BA5" s="1093"/>
-      <c r="BB5" s="1094"/>
-      <c r="BC5" s="1095"/>
-      <c r="BD5" s="1096"/>
-      <c r="BE5" s="1097"/>
-      <c r="BF5" s="1098"/>
-      <c r="BG5" s="1099"/>
-      <c r="BH5" s="1100"/>
-      <c r="BI5" s="1101"/>
-      <c r="BJ5" s="1102"/>
-      <c r="BK5" t="s" s="1103">
+      <c r="AZ5" s="1128"/>
+      <c r="BA5" s="1129"/>
+      <c r="BB5" s="1130"/>
+      <c r="BC5" s="1131"/>
+      <c r="BD5" s="1132"/>
+      <c r="BE5" s="1133"/>
+      <c r="BF5" s="1134"/>
+      <c r="BG5" s="1135"/>
+      <c r="BH5" s="1136"/>
+      <c r="BI5" s="1137"/>
+      <c r="BJ5" s="1138"/>
+      <c r="BK5" t="s" s="1139">
         <v>11</v>
       </c>
-      <c r="BL5" s="1104"/>
-      <c r="BM5" s="1105"/>
-      <c r="BN5" s="1106"/>
-      <c r="BO5" s="1107"/>
-      <c r="BP5" s="1108"/>
-      <c r="BQ5" s="1109"/>
-      <c r="BR5" s="1110"/>
-      <c r="BS5" s="1111"/>
-      <c r="BT5" s="1112"/>
-      <c r="BU5" s="1113"/>
-      <c r="BV5" s="1114"/>
-      <c r="BW5" t="s" s="1115">
+      <c r="BL5" s="1140"/>
+      <c r="BM5" s="1141"/>
+      <c r="BN5" s="1142"/>
+      <c r="BO5" s="1143"/>
+      <c r="BP5" s="1144"/>
+      <c r="BQ5" s="1145"/>
+      <c r="BR5" s="1146"/>
+      <c r="BS5" s="1147"/>
+      <c r="BT5" s="1148"/>
+      <c r="BU5" s="1149"/>
+      <c r="BV5" s="1150"/>
+      <c r="BW5" t="s" s="1151">
         <v>12</v>
       </c>
-      <c r="BX5" s="1116"/>
-      <c r="BY5" s="1117"/>
-      <c r="BZ5" s="1118"/>
-      <c r="CA5" s="1119"/>
-      <c r="CB5" s="1120"/>
-      <c r="CC5" s="1121"/>
-      <c r="CD5" s="1122"/>
-      <c r="CE5" s="1123"/>
-      <c r="CF5" s="1124"/>
-      <c r="CG5" s="1125"/>
-      <c r="CH5" s="1126"/>
-      <c r="CI5" t="s" s="1127">
+      <c r="BX5" s="1152"/>
+      <c r="BY5" s="1153"/>
+      <c r="BZ5" s="1154"/>
+      <c r="CA5" s="1155"/>
+      <c r="CB5" s="1156"/>
+      <c r="CC5" s="1157"/>
+      <c r="CD5" s="1158"/>
+      <c r="CE5" s="1159"/>
+      <c r="CF5" s="1160"/>
+      <c r="CG5" s="1161"/>
+      <c r="CH5" s="1162"/>
+      <c r="CI5" t="s" s="1163">
         <v>13</v>
       </c>
-      <c r="CJ5" s="1128"/>
-      <c r="CK5" s="1129"/>
-      <c r="CL5" s="1130"/>
-      <c r="CM5" s="1131"/>
-      <c r="CN5" s="1132"/>
-      <c r="CO5" s="1133"/>
-      <c r="CP5" s="1134"/>
-      <c r="CQ5" s="1135"/>
-      <c r="CR5" s="1136"/>
-      <c r="CS5" s="1137"/>
-      <c r="CT5" s="1138"/>
-      <c r="CU5" t="s" s="1139">
+      <c r="CJ5" s="1164"/>
+      <c r="CK5" s="1165"/>
+      <c r="CL5" s="1166"/>
+      <c r="CM5" s="1167"/>
+      <c r="CN5" s="1168"/>
+      <c r="CO5" s="1169"/>
+      <c r="CP5" s="1170"/>
+      <c r="CQ5" s="1171"/>
+      <c r="CR5" s="1172"/>
+      <c r="CS5" s="1173"/>
+      <c r="CT5" s="1174"/>
+      <c r="CU5" t="s" s="1175">
         <v>14</v>
       </c>
-      <c r="CV5" s="1140"/>
-      <c r="CW5" s="1141"/>
-      <c r="CX5" s="1142"/>
-      <c r="CY5" s="1143"/>
-      <c r="CZ5" s="1144"/>
-      <c r="DA5" s="1145"/>
-      <c r="DB5" s="1146"/>
-      <c r="DC5" s="1147"/>
-      <c r="DD5" s="1148"/>
-      <c r="DE5" s="1149"/>
-      <c r="DF5" s="1150"/>
-      <c r="DG5" t="s" s="1151">
+      <c r="CV5" s="1176"/>
+      <c r="CW5" s="1177"/>
+      <c r="CX5" s="1178"/>
+      <c r="CY5" s="1179"/>
+      <c r="CZ5" s="1180"/>
+      <c r="DA5" s="1181"/>
+      <c r="DB5" s="1182"/>
+      <c r="DC5" s="1183"/>
+      <c r="DD5" s="1184"/>
+      <c r="DE5" s="1185"/>
+      <c r="DF5" s="1186"/>
+      <c r="DG5" t="s" s="1187">
         <v>15</v>
       </c>
-      <c r="DH5" s="1152"/>
-      <c r="DI5" s="1153"/>
-      <c r="DJ5" s="1154"/>
-      <c r="DK5" s="1155"/>
-      <c r="DL5" s="1156"/>
-      <c r="DM5" s="1157"/>
-      <c r="DN5" s="1158"/>
-      <c r="DO5" s="1159"/>
-      <c r="DP5" s="1160"/>
-      <c r="DQ5" s="1161"/>
-      <c r="DR5" s="1162"/>
-      <c r="DS5" t="s" s="1163">
+      <c r="DH5" s="1188"/>
+      <c r="DI5" s="1189"/>
+      <c r="DJ5" s="1190"/>
+      <c r="DK5" s="1191"/>
+      <c r="DL5" s="1192"/>
+      <c r="DM5" s="1193"/>
+      <c r="DN5" s="1194"/>
+      <c r="DO5" s="1195"/>
+      <c r="DP5" s="1196"/>
+      <c r="DQ5" s="1197"/>
+      <c r="DR5" s="1198"/>
+      <c r="DS5" t="s" s="1199">
         <v>16</v>
       </c>
-      <c r="DT5" s="1164"/>
-      <c r="DU5" s="1165"/>
-      <c r="DV5" s="1166"/>
-      <c r="DW5" s="1167"/>
-      <c r="DX5" s="1168"/>
-      <c r="DY5" s="1169"/>
-      <c r="DZ5" s="1170"/>
-      <c r="EA5" s="1171"/>
-      <c r="EB5" s="1172"/>
-      <c r="EC5" s="1173"/>
-      <c r="ED5" s="1174"/>
-      <c r="EE5" t="s" s="1175">
+      <c r="DT5" s="1200"/>
+      <c r="DU5" s="1201"/>
+      <c r="DV5" s="1202"/>
+      <c r="DW5" s="1203"/>
+      <c r="DX5" s="1204"/>
+      <c r="DY5" s="1205"/>
+      <c r="DZ5" s="1206"/>
+      <c r="EA5" s="1207"/>
+      <c r="EB5" s="1208"/>
+      <c r="EC5" s="1209"/>
+      <c r="ED5" s="1210"/>
+      <c r="EE5" t="s" s="1211">
         <v>17</v>
       </c>
-      <c r="EF5" s="1176"/>
-      <c r="EG5" s="1177"/>
-      <c r="EH5" s="1178"/>
-      <c r="EI5" s="1179"/>
-      <c r="EJ5" s="1180"/>
-      <c r="EK5" s="1181"/>
-      <c r="EL5" s="1182"/>
-      <c r="EM5" s="1183"/>
-      <c r="EN5" s="1184"/>
-      <c r="EO5" s="1185"/>
-      <c r="EP5" s="1186"/>
-      <c r="EQ5" t="s" s="1187">
+      <c r="EF5" s="1212"/>
+      <c r="EG5" s="1213"/>
+      <c r="EH5" s="1214"/>
+      <c r="EI5" s="1215"/>
+      <c r="EJ5" s="1216"/>
+      <c r="EK5" s="1217"/>
+      <c r="EL5" s="1218"/>
+      <c r="EM5" s="1219"/>
+      <c r="EN5" s="1220"/>
+      <c r="EO5" s="1221"/>
+      <c r="EP5" s="1222"/>
+      <c r="EQ5" t="s" s="1223">
         <v>18</v>
       </c>
-      <c r="ER5" s="1188"/>
-      <c r="ES5" s="1189"/>
-      <c r="ET5" s="1190"/>
-      <c r="EU5" s="1191"/>
-      <c r="EV5" s="1192"/>
-      <c r="EW5" s="1193"/>
-      <c r="EX5" s="1194"/>
-      <c r="EY5" s="1195"/>
-      <c r="EZ5" s="1196"/>
-      <c r="FA5" s="1197"/>
-      <c r="FB5" s="1198"/>
-      <c r="FC5" t="s" s="1199">
+      <c r="ER5" s="1224"/>
+      <c r="ES5" s="1225"/>
+      <c r="ET5" s="1226"/>
+      <c r="EU5" s="1227"/>
+      <c r="EV5" s="1228"/>
+      <c r="EW5" s="1229"/>
+      <c r="EX5" s="1230"/>
+      <c r="EY5" s="1231"/>
+      <c r="EZ5" s="1232"/>
+      <c r="FA5" s="1233"/>
+      <c r="FB5" s="1234"/>
+      <c r="FC5" t="s" s="1235">
         <v>19</v>
       </c>
-      <c r="FD5" s="1200"/>
-      <c r="FE5" s="1201"/>
-      <c r="FF5" s="1202"/>
-      <c r="FG5" s="1203"/>
-      <c r="FH5" s="1204"/>
-      <c r="FI5" s="1205"/>
-      <c r="FJ5" s="1206"/>
-      <c r="FK5" s="1207"/>
-      <c r="FL5" s="1208"/>
-      <c r="FM5" s="1209"/>
-      <c r="FN5" s="1210"/>
-      <c r="FO5" t="s" s="1211">
+      <c r="FD5" s="1236"/>
+      <c r="FE5" s="1237"/>
+      <c r="FF5" s="1238"/>
+      <c r="FG5" s="1239"/>
+      <c r="FH5" s="1240"/>
+      <c r="FI5" s="1241"/>
+      <c r="FJ5" s="1242"/>
+      <c r="FK5" s="1243"/>
+      <c r="FL5" s="1244"/>
+      <c r="FM5" s="1245"/>
+      <c r="FN5" s="1246"/>
+      <c r="FO5" t="s" s="1247">
         <v>20</v>
       </c>
-      <c r="FP5" s="1212"/>
-      <c r="FQ5" s="1213"/>
-      <c r="FR5" s="1214"/>
-      <c r="FS5" s="1215"/>
-      <c r="FT5" s="1216"/>
-      <c r="FU5" s="1217"/>
-      <c r="FV5" s="1218"/>
-      <c r="FW5" s="1219"/>
-      <c r="FX5" s="1220"/>
-      <c r="FY5" s="1221"/>
-      <c r="FZ5" s="1222"/>
-      <c r="GA5" t="s" s="1223">
+      <c r="FP5" s="1248"/>
+      <c r="FQ5" s="1249"/>
+      <c r="FR5" s="1250"/>
+      <c r="FS5" s="1251"/>
+      <c r="FT5" s="1252"/>
+      <c r="FU5" s="1253"/>
+      <c r="FV5" s="1254"/>
+      <c r="FW5" s="1255"/>
+      <c r="FX5" s="1256"/>
+      <c r="FY5" s="1257"/>
+      <c r="FZ5" s="1258"/>
+      <c r="GA5" t="s" s="1259">
         <v>21</v>
       </c>
-      <c r="GB5" s="1224"/>
-      <c r="GC5" s="1225"/>
-      <c r="GD5" s="1226"/>
-      <c r="GE5" s="1227"/>
-      <c r="GF5" s="1228"/>
-      <c r="GG5" s="1229"/>
-      <c r="GH5" s="1230"/>
-      <c r="GI5" s="1231"/>
-      <c r="GJ5" s="1232"/>
-      <c r="GK5" s="1233"/>
-      <c r="GL5" s="1234"/>
-      <c r="GM5" t="s" s="1235">
+      <c r="GB5" s="1260"/>
+      <c r="GC5" s="1261"/>
+      <c r="GD5" s="1262"/>
+      <c r="GE5" s="1263"/>
+      <c r="GF5" s="1264"/>
+      <c r="GG5" s="1265"/>
+      <c r="GH5" s="1266"/>
+      <c r="GI5" s="1267"/>
+      <c r="GJ5" s="1268"/>
+      <c r="GK5" s="1269"/>
+      <c r="GL5" s="1270"/>
+      <c r="GM5" t="s" s="1271">
         <v>22</v>
       </c>
-      <c r="GN5" s="1236"/>
-      <c r="GO5" s="1237"/>
-      <c r="GP5" s="1238"/>
-      <c r="GQ5" s="1239"/>
-      <c r="GR5" s="1240"/>
-      <c r="GS5" s="1241"/>
-      <c r="GT5" s="1242"/>
-      <c r="GU5" s="1243"/>
-      <c r="GV5" s="1244"/>
-      <c r="GW5" s="1245"/>
-      <c r="GX5" s="1246"/>
-      <c r="GY5" t="s" s="1247">
+      <c r="GN5" s="1272"/>
+      <c r="GO5" s="1273"/>
+      <c r="GP5" s="1274"/>
+      <c r="GQ5" s="1275"/>
+      <c r="GR5" s="1276"/>
+      <c r="GS5" s="1277"/>
+      <c r="GT5" s="1278"/>
+      <c r="GU5" s="1279"/>
+      <c r="GV5" s="1280"/>
+      <c r="GW5" s="1281"/>
+      <c r="GX5" s="1282"/>
+      <c r="GY5" t="s" s="1283">
         <v>23</v>
       </c>
-      <c r="GZ5" s="1248"/>
-      <c r="HA5" s="1249"/>
-      <c r="HB5" s="1250"/>
-      <c r="HC5" s="1251"/>
-      <c r="HD5" s="1252"/>
-      <c r="HE5" s="1253"/>
-      <c r="HF5" s="1254"/>
-      <c r="HG5" s="1255"/>
-      <c r="HH5" s="1256"/>
-      <c r="HI5" s="1257"/>
-      <c r="HJ5" s="1258"/>
-      <c r="HK5" t="s" s="1259">
+      <c r="GZ5" s="1284"/>
+      <c r="HA5" s="1285"/>
+      <c r="HB5" s="1286"/>
+      <c r="HC5" s="1287"/>
+      <c r="HD5" s="1288"/>
+      <c r="HE5" s="1289"/>
+      <c r="HF5" s="1290"/>
+      <c r="HG5" s="1291"/>
+      <c r="HH5" s="1292"/>
+      <c r="HI5" s="1293"/>
+      <c r="HJ5" s="1294"/>
+      <c r="HK5" t="s" s="1295">
         <v>24</v>
       </c>
-      <c r="HL5" s="1260"/>
-      <c r="HM5" s="1261"/>
-      <c r="HN5" s="1262"/>
-      <c r="HO5" s="1263"/>
-      <c r="HP5" s="1264"/>
-      <c r="HQ5" s="1265"/>
-      <c r="HR5" s="1266"/>
-      <c r="HS5" s="1267"/>
-      <c r="HT5" s="1268"/>
-      <c r="HU5" s="1269"/>
-      <c r="HV5" s="1270"/>
-      <c r="HW5" t="s" s="1271">
+      <c r="HL5" s="1296"/>
+      <c r="HM5" s="1297"/>
+      <c r="HN5" s="1298"/>
+      <c r="HO5" s="1299"/>
+      <c r="HP5" s="1300"/>
+      <c r="HQ5" s="1301"/>
+      <c r="HR5" s="1302"/>
+      <c r="HS5" s="1303"/>
+      <c r="HT5" s="1304"/>
+      <c r="HU5" s="1305"/>
+      <c r="HV5" s="1306"/>
+      <c r="HW5" t="s" s="1307">
         <v>25</v>
       </c>
-      <c r="HX5" s="1272"/>
-      <c r="HY5" s="1273"/>
-      <c r="HZ5" s="1274"/>
-      <c r="IA5" s="1275"/>
-      <c r="IB5" s="1276"/>
-      <c r="IC5" s="1277"/>
-      <c r="ID5" s="1278"/>
-      <c r="IE5" s="1279"/>
-      <c r="IF5" s="1280"/>
-      <c r="IG5" s="1281"/>
-      <c r="IH5" s="1282"/>
-      <c r="II5" t="s" s="1283">
+      <c r="HX5" s="1308"/>
+      <c r="HY5" s="1309"/>
+      <c r="HZ5" s="1310"/>
+      <c r="IA5" s="1311"/>
+      <c r="IB5" s="1312"/>
+      <c r="IC5" s="1313"/>
+      <c r="ID5" s="1314"/>
+      <c r="IE5" s="1315"/>
+      <c r="IF5" s="1316"/>
+      <c r="IG5" s="1317"/>
+      <c r="IH5" s="1318"/>
+      <c r="II5" t="s" s="1319">
         <v>26</v>
       </c>
-      <c r="IJ5" s="1284"/>
-      <c r="IK5" s="1285"/>
-      <c r="IL5" s="1286"/>
-      <c r="IM5" s="1287"/>
-      <c r="IN5" s="1288"/>
-      <c r="IO5" s="1289"/>
-      <c r="IP5" s="1290"/>
-      <c r="IQ5" s="1291"/>
-      <c r="IR5" s="1292"/>
-      <c r="IS5" s="1293"/>
-      <c r="IT5" s="1294"/>
-      <c r="IU5" t="s" s="1295">
+      <c r="IJ5" s="1320"/>
+      <c r="IK5" s="1321"/>
+      <c r="IL5" s="1322"/>
+      <c r="IM5" s="1323"/>
+      <c r="IN5" s="1324"/>
+      <c r="IO5" s="1325"/>
+      <c r="IP5" s="1326"/>
+      <c r="IQ5" s="1327"/>
+      <c r="IR5" s="1328"/>
+      <c r="IS5" s="1329"/>
+      <c r="IT5" s="1330"/>
+      <c r="IU5" t="s" s="1331">
         <v>27</v>
       </c>
-      <c r="IV5" s="1296"/>
-      <c r="IW5" s="1297"/>
-      <c r="IX5" s="1298"/>
-      <c r="IY5" s="1299"/>
-      <c r="IZ5" s="1300"/>
-      <c r="JA5" s="1301"/>
-      <c r="JB5" s="1302"/>
-      <c r="JC5" s="1303"/>
-      <c r="JD5" s="1304"/>
-      <c r="JE5" s="1305"/>
-      <c r="JF5" s="1306"/>
-      <c r="JG5" t="s" s="1307">
+      <c r="IV5" s="1332"/>
+      <c r="IW5" s="1333"/>
+      <c r="IX5" s="1334"/>
+      <c r="IY5" s="1335"/>
+      <c r="IZ5" s="1336"/>
+      <c r="JA5" s="1337"/>
+      <c r="JB5" s="1338"/>
+      <c r="JC5" s="1339"/>
+      <c r="JD5" s="1340"/>
+      <c r="JE5" s="1341"/>
+      <c r="JF5" s="1342"/>
+      <c r="JG5" t="s" s="1343">
         <v>28</v>
       </c>
-      <c r="JH5" s="1308"/>
-      <c r="JI5" s="1309"/>
-      <c r="JJ5" s="1310"/>
-      <c r="JK5" s="1311"/>
-      <c r="JL5" s="1312"/>
-      <c r="JM5" s="1313"/>
-      <c r="JN5" s="1314"/>
-      <c r="JO5" s="1315"/>
-      <c r="JP5" s="1316"/>
-      <c r="JQ5" s="1317"/>
-      <c r="JR5" s="1318"/>
-      <c r="JS5" t="s" s="1319">
+      <c r="JH5" s="1344"/>
+      <c r="JI5" s="1345"/>
+      <c r="JJ5" s="1346"/>
+      <c r="JK5" s="1347"/>
+      <c r="JL5" s="1348"/>
+      <c r="JM5" s="1349"/>
+      <c r="JN5" s="1350"/>
+      <c r="JO5" s="1351"/>
+      <c r="JP5" s="1352"/>
+      <c r="JQ5" s="1353"/>
+      <c r="JR5" s="1354"/>
+      <c r="JS5" t="s" s="1355">
         <v>29</v>
       </c>
-      <c r="JT5" s="1320"/>
-      <c r="JU5" s="1321"/>
-      <c r="JV5" s="1322"/>
-      <c r="JW5" s="1323"/>
-      <c r="JX5" s="1324"/>
-      <c r="JY5" s="1325"/>
-      <c r="JZ5" s="1326"/>
-      <c r="KA5" s="1327"/>
-      <c r="KB5" s="1328"/>
-      <c r="KC5" s="1329"/>
-      <c r="KD5" s="1330"/>
-      <c r="KE5" t="s" s="1331">
+      <c r="JT5" s="1356"/>
+      <c r="JU5" s="1357"/>
+      <c r="JV5" s="1358"/>
+      <c r="JW5" s="1359"/>
+      <c r="JX5" s="1360"/>
+      <c r="JY5" s="1361"/>
+      <c r="JZ5" s="1362"/>
+      <c r="KA5" s="1363"/>
+      <c r="KB5" s="1364"/>
+      <c r="KC5" s="1365"/>
+      <c r="KD5" s="1366"/>
+      <c r="KE5" t="s" s="1367">
         <v>30</v>
       </c>
-      <c r="KF5" s="1332"/>
-      <c r="KG5" s="1333"/>
-      <c r="KH5" s="1334"/>
-      <c r="KI5" s="1335"/>
-      <c r="KJ5" s="1336"/>
-      <c r="KK5" s="1337"/>
-      <c r="KL5" s="1338"/>
-      <c r="KM5" s="1339"/>
-      <c r="KN5" s="1340"/>
-      <c r="KO5" s="1341"/>
-      <c r="KP5" s="1342"/>
-      <c r="KQ5" t="s" s="1343">
+      <c r="KF5" s="1368"/>
+      <c r="KG5" s="1369"/>
+      <c r="KH5" s="1370"/>
+      <c r="KI5" s="1371"/>
+      <c r="KJ5" s="1372"/>
+      <c r="KK5" s="1373"/>
+      <c r="KL5" s="1374"/>
+      <c r="KM5" s="1375"/>
+      <c r="KN5" s="1376"/>
+      <c r="KO5" s="1377"/>
+      <c r="KP5" s="1378"/>
+      <c r="KQ5" t="s" s="1379">
         <v>31</v>
       </c>
-      <c r="KR5" s="1344"/>
-      <c r="KS5" s="1345"/>
-      <c r="KT5" s="1346"/>
-      <c r="KU5" s="1347"/>
-      <c r="KV5" s="1348"/>
-      <c r="KW5" s="1349"/>
-      <c r="KX5" s="1350"/>
-      <c r="KY5" s="1351"/>
-      <c r="KZ5" s="1352"/>
-      <c r="LA5" s="1353"/>
-      <c r="LB5" s="1354"/>
-      <c r="LC5" t="s" s="1355">
+      <c r="KR5" s="1380"/>
+      <c r="KS5" s="1381"/>
+      <c r="KT5" s="1382"/>
+      <c r="KU5" s="1383"/>
+      <c r="KV5" s="1384"/>
+      <c r="KW5" s="1385"/>
+      <c r="KX5" s="1386"/>
+      <c r="KY5" s="1387"/>
+      <c r="KZ5" s="1388"/>
+      <c r="LA5" s="1389"/>
+      <c r="LB5" s="1390"/>
+      <c r="LC5" t="s" s="1391">
         <v>32</v>
       </c>
-      <c r="LD5" s="1356"/>
-      <c r="LE5" s="1357"/>
-      <c r="LF5" s="1358"/>
-      <c r="LG5" s="1359"/>
-      <c r="LH5" s="1360"/>
-      <c r="LI5" s="1361"/>
-      <c r="LJ5" s="1362"/>
-      <c r="LK5" s="1363"/>
-      <c r="LL5" s="1364"/>
-      <c r="LM5" s="1365"/>
-      <c r="LN5" s="1366"/>
-      <c r="LO5" t="s" s="1367">
+      <c r="LD5" s="1392"/>
+      <c r="LE5" s="1393"/>
+      <c r="LF5" s="1394"/>
+      <c r="LG5" s="1395"/>
+      <c r="LH5" s="1396"/>
+      <c r="LI5" s="1397"/>
+      <c r="LJ5" s="1398"/>
+      <c r="LK5" s="1399"/>
+      <c r="LL5" s="1400"/>
+      <c r="LM5" s="1401"/>
+      <c r="LN5" s="1402"/>
+      <c r="LO5" t="s" s="1403">
         <v>33</v>
       </c>
-      <c r="LP5" s="1368"/>
-      <c r="LQ5" s="1369"/>
-      <c r="LR5" s="1370"/>
-      <c r="LS5" s="1371"/>
-      <c r="LT5" s="1372"/>
-      <c r="LU5" s="1373"/>
-      <c r="LV5" s="1374"/>
-      <c r="LW5" s="1375"/>
-      <c r="LX5" s="1376"/>
-      <c r="LY5" s="1377"/>
-      <c r="LZ5" s="1378"/>
+      <c r="LP5" s="1404"/>
+      <c r="LQ5" s="1405"/>
+      <c r="LR5" s="1406"/>
+      <c r="LS5" s="1407"/>
+      <c r="LT5" s="1408"/>
+      <c r="LU5" s="1409"/>
+      <c r="LV5" s="1410"/>
+      <c r="LW5" s="1411"/>
+      <c r="LX5" s="1412"/>
+      <c r="LY5" s="1413"/>
+      <c r="LZ5" s="1414"/>
+      <c r="MA5" t="s" s="1415">
+        <v>34</v>
+      </c>
+      <c r="MB5" s="1416"/>
+      <c r="MC5" s="1417"/>
+      <c r="MD5" s="1418"/>
+      <c r="ME5" s="1419"/>
+      <c r="MF5" s="1420"/>
+      <c r="MG5" s="1421"/>
+      <c r="MH5" s="1422"/>
+      <c r="MI5" s="1423"/>
+      <c r="MJ5" s="1424"/>
+      <c r="MK5" s="1425"/>
+      <c r="ML5" s="1426"/>
     </row>
     <row r="6">
-      <c r="A6" s="1379"/>
-      <c r="B6" s="1380"/>
-      <c r="C6" t="s" s="1381">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1382"/>
-      <c r="E6" s="1383"/>
-      <c r="F6" s="1384"/>
-      <c r="G6" s="1385"/>
-      <c r="H6" s="1386"/>
-      <c r="I6" s="1387"/>
-      <c r="J6" s="1388"/>
-      <c r="K6" s="1389"/>
-      <c r="L6" s="1390"/>
-      <c r="M6" s="1391"/>
-      <c r="N6" s="1392"/>
-      <c r="O6" t="s" s="1393">
-        <v>34</v>
-      </c>
-      <c r="P6" s="1394"/>
-      <c r="Q6" s="1395"/>
-      <c r="R6" s="1396"/>
-      <c r="S6" s="1397"/>
-      <c r="T6" s="1398"/>
-      <c r="U6" s="1399"/>
-      <c r="V6" s="1400"/>
-      <c r="W6" s="1401"/>
-      <c r="X6" s="1402"/>
-      <c r="Y6" s="1403"/>
-      <c r="Z6" s="1404"/>
-      <c r="AA6" t="s" s="1405">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="1406"/>
-      <c r="AC6" s="1407"/>
-      <c r="AD6" s="1408"/>
-      <c r="AE6" s="1409"/>
-      <c r="AF6" s="1410"/>
-      <c r="AG6" s="1411"/>
-      <c r="AH6" s="1412"/>
-      <c r="AI6" s="1413"/>
-      <c r="AJ6" s="1414"/>
-      <c r="AK6" s="1415"/>
-      <c r="AL6" s="1416"/>
-      <c r="AM6" t="s" s="1417">
-        <v>34</v>
-      </c>
-      <c r="AN6" s="1418"/>
-      <c r="AO6" s="1419"/>
-      <c r="AP6" s="1420"/>
-      <c r="AQ6" s="1421"/>
-      <c r="AR6" s="1422"/>
-      <c r="AS6" s="1423"/>
-      <c r="AT6" s="1424"/>
-      <c r="AU6" s="1425"/>
-      <c r="AV6" s="1426"/>
-      <c r="AW6" s="1427"/>
-      <c r="AX6" s="1428"/>
-      <c r="AY6" t="s" s="1429">
-        <v>34</v>
-      </c>
-      <c r="AZ6" s="1430"/>
-      <c r="BA6" s="1431"/>
-      <c r="BB6" s="1432"/>
-      <c r="BC6" s="1433"/>
-      <c r="BD6" s="1434"/>
-      <c r="BE6" s="1435"/>
-      <c r="BF6" s="1436"/>
-      <c r="BG6" s="1437"/>
-      <c r="BH6" s="1438"/>
-      <c r="BI6" s="1439"/>
-      <c r="BJ6" s="1440"/>
-      <c r="BK6" t="s" s="1441">
-        <v>34</v>
-      </c>
-      <c r="BL6" s="1442"/>
-      <c r="BM6" s="1443"/>
-      <c r="BN6" s="1444"/>
-      <c r="BO6" s="1445"/>
-      <c r="BP6" s="1446"/>
-      <c r="BQ6" s="1447"/>
-      <c r="BR6" s="1448"/>
-      <c r="BS6" s="1449"/>
-      <c r="BT6" s="1450"/>
-      <c r="BU6" s="1451"/>
-      <c r="BV6" s="1452"/>
-      <c r="BW6" t="s" s="1453">
-        <v>34</v>
-      </c>
-      <c r="BX6" s="1454"/>
-      <c r="BY6" s="1455"/>
-      <c r="BZ6" s="1456"/>
-      <c r="CA6" s="1457"/>
-      <c r="CB6" s="1458"/>
-      <c r="CC6" s="1459"/>
-      <c r="CD6" s="1460"/>
-      <c r="CE6" s="1461"/>
-      <c r="CF6" s="1462"/>
-      <c r="CG6" s="1463"/>
-      <c r="CH6" s="1464"/>
-      <c r="CI6" t="s" s="1465">
-        <v>34</v>
-      </c>
-      <c r="CJ6" s="1466"/>
-      <c r="CK6" s="1467"/>
-      <c r="CL6" s="1468"/>
-      <c r="CM6" s="1469"/>
-      <c r="CN6" s="1470"/>
-      <c r="CO6" s="1471"/>
-      <c r="CP6" s="1472"/>
-      <c r="CQ6" s="1473"/>
-      <c r="CR6" s="1474"/>
-      <c r="CS6" s="1475"/>
-      <c r="CT6" s="1476"/>
-      <c r="CU6" t="s" s="1477">
-        <v>34</v>
-      </c>
-      <c r="CV6" s="1478"/>
-      <c r="CW6" s="1479"/>
-      <c r="CX6" s="1480"/>
-      <c r="CY6" s="1481"/>
-      <c r="CZ6" s="1482"/>
-      <c r="DA6" s="1483"/>
-      <c r="DB6" s="1484"/>
-      <c r="DC6" s="1485"/>
-      <c r="DD6" s="1486"/>
-      <c r="DE6" s="1487"/>
-      <c r="DF6" s="1488"/>
-      <c r="DG6" t="s" s="1489">
-        <v>34</v>
-      </c>
-      <c r="DH6" s="1490"/>
-      <c r="DI6" s="1491"/>
-      <c r="DJ6" s="1492"/>
-      <c r="DK6" s="1493"/>
-      <c r="DL6" s="1494"/>
-      <c r="DM6" s="1495"/>
-      <c r="DN6" s="1496"/>
-      <c r="DO6" s="1497"/>
-      <c r="DP6" s="1498"/>
-      <c r="DQ6" s="1499"/>
-      <c r="DR6" s="1500"/>
-      <c r="DS6" t="s" s="1501">
-        <v>34</v>
-      </c>
-      <c r="DT6" s="1502"/>
-      <c r="DU6" s="1503"/>
-      <c r="DV6" s="1504"/>
-      <c r="DW6" s="1505"/>
-      <c r="DX6" s="1506"/>
-      <c r="DY6" s="1507"/>
-      <c r="DZ6" s="1508"/>
-      <c r="EA6" s="1509"/>
-      <c r="EB6" s="1510"/>
-      <c r="EC6" s="1511"/>
-      <c r="ED6" s="1512"/>
-      <c r="EE6" t="s" s="1513">
-        <v>34</v>
-      </c>
-      <c r="EF6" s="1514"/>
-      <c r="EG6" s="1515"/>
-      <c r="EH6" s="1516"/>
-      <c r="EI6" s="1517"/>
-      <c r="EJ6" s="1518"/>
-      <c r="EK6" s="1519"/>
-      <c r="EL6" s="1520"/>
-      <c r="EM6" s="1521"/>
-      <c r="EN6" s="1522"/>
-      <c r="EO6" s="1523"/>
-      <c r="EP6" s="1524"/>
-      <c r="EQ6" t="s" s="1525">
-        <v>34</v>
-      </c>
-      <c r="ER6" s="1526"/>
-      <c r="ES6" s="1527"/>
-      <c r="ET6" s="1528"/>
-      <c r="EU6" s="1529"/>
-      <c r="EV6" s="1530"/>
-      <c r="EW6" s="1531"/>
-      <c r="EX6" s="1532"/>
-      <c r="EY6" s="1533"/>
-      <c r="EZ6" s="1534"/>
-      <c r="FA6" s="1535"/>
-      <c r="FB6" s="1536"/>
-      <c r="FC6" t="s" s="1537">
-        <v>34</v>
-      </c>
-      <c r="FD6" s="1538"/>
-      <c r="FE6" s="1539"/>
-      <c r="FF6" s="1540"/>
-      <c r="FG6" s="1541"/>
-      <c r="FH6" s="1542"/>
-      <c r="FI6" s="1543"/>
-      <c r="FJ6" s="1544"/>
-      <c r="FK6" s="1545"/>
-      <c r="FL6" s="1546"/>
-      <c r="FM6" s="1547"/>
-      <c r="FN6" s="1548"/>
-      <c r="FO6" t="s" s="1549">
-        <v>34</v>
-      </c>
-      <c r="FP6" s="1550"/>
-      <c r="FQ6" s="1551"/>
-      <c r="FR6" s="1552"/>
-      <c r="FS6" s="1553"/>
-      <c r="FT6" s="1554"/>
-      <c r="FU6" s="1555"/>
-      <c r="FV6" s="1556"/>
-      <c r="FW6" s="1557"/>
-      <c r="FX6" s="1558"/>
-      <c r="FY6" s="1559"/>
-      <c r="FZ6" s="1560"/>
-      <c r="GA6" t="s" s="1561">
-        <v>34</v>
-      </c>
-      <c r="GB6" s="1562"/>
-      <c r="GC6" s="1563"/>
-      <c r="GD6" s="1564"/>
-      <c r="GE6" s="1565"/>
-      <c r="GF6" s="1566"/>
-      <c r="GG6" s="1567"/>
-      <c r="GH6" s="1568"/>
-      <c r="GI6" s="1569"/>
-      <c r="GJ6" s="1570"/>
-      <c r="GK6" s="1571"/>
-      <c r="GL6" s="1572"/>
-      <c r="GM6" t="s" s="1573">
-        <v>34</v>
-      </c>
-      <c r="GN6" s="1574"/>
-      <c r="GO6" s="1575"/>
-      <c r="GP6" s="1576"/>
-      <c r="GQ6" s="1577"/>
-      <c r="GR6" s="1578"/>
-      <c r="GS6" s="1579"/>
-      <c r="GT6" s="1580"/>
-      <c r="GU6" s="1581"/>
-      <c r="GV6" s="1582"/>
-      <c r="GW6" s="1583"/>
-      <c r="GX6" s="1584"/>
-      <c r="GY6" t="s" s="1585">
-        <v>34</v>
-      </c>
-      <c r="GZ6" s="1586"/>
-      <c r="HA6" s="1587"/>
-      <c r="HB6" s="1588"/>
-      <c r="HC6" s="1589"/>
-      <c r="HD6" s="1590"/>
-      <c r="HE6" s="1591"/>
-      <c r="HF6" s="1592"/>
-      <c r="HG6" s="1593"/>
-      <c r="HH6" s="1594"/>
-      <c r="HI6" s="1595"/>
-      <c r="HJ6" s="1596"/>
-      <c r="HK6" t="s" s="1597">
-        <v>34</v>
-      </c>
-      <c r="HL6" s="1598"/>
-      <c r="HM6" s="1599"/>
-      <c r="HN6" s="1600"/>
-      <c r="HO6" s="1601"/>
-      <c r="HP6" s="1602"/>
-      <c r="HQ6" s="1603"/>
-      <c r="HR6" s="1604"/>
-      <c r="HS6" s="1605"/>
-      <c r="HT6" s="1606"/>
-      <c r="HU6" s="1607"/>
-      <c r="HV6" s="1608"/>
-      <c r="HW6" t="s" s="1609">
-        <v>34</v>
-      </c>
-      <c r="HX6" s="1610"/>
-      <c r="HY6" s="1611"/>
-      <c r="HZ6" s="1612"/>
-      <c r="IA6" s="1613"/>
-      <c r="IB6" s="1614"/>
-      <c r="IC6" s="1615"/>
-      <c r="ID6" s="1616"/>
-      <c r="IE6" s="1617"/>
-      <c r="IF6" s="1618"/>
-      <c r="IG6" s="1619"/>
-      <c r="IH6" s="1620"/>
-      <c r="II6" t="s" s="1621">
-        <v>34</v>
-      </c>
-      <c r="IJ6" s="1622"/>
-      <c r="IK6" s="1623"/>
-      <c r="IL6" s="1624"/>
-      <c r="IM6" s="1625"/>
-      <c r="IN6" s="1626"/>
-      <c r="IO6" s="1627"/>
-      <c r="IP6" s="1628"/>
-      <c r="IQ6" s="1629"/>
-      <c r="IR6" s="1630"/>
-      <c r="IS6" s="1631"/>
-      <c r="IT6" s="1632"/>
-      <c r="IU6" t="s" s="1633">
-        <v>34</v>
-      </c>
-      <c r="IV6" s="1634"/>
-      <c r="IW6" s="1635"/>
-      <c r="IX6" s="1636"/>
-      <c r="IY6" s="1637"/>
-      <c r="IZ6" s="1638"/>
-      <c r="JA6" s="1639"/>
-      <c r="JB6" s="1640"/>
-      <c r="JC6" s="1641"/>
-      <c r="JD6" s="1642"/>
-      <c r="JE6" s="1643"/>
-      <c r="JF6" s="1644"/>
-      <c r="JG6" t="s" s="1645">
-        <v>34</v>
-      </c>
-      <c r="JH6" s="1646"/>
-      <c r="JI6" s="1647"/>
-      <c r="JJ6" s="1648"/>
-      <c r="JK6" s="1649"/>
-      <c r="JL6" s="1650"/>
-      <c r="JM6" s="1651"/>
-      <c r="JN6" s="1652"/>
-      <c r="JO6" s="1653"/>
-      <c r="JP6" s="1654"/>
-      <c r="JQ6" s="1655"/>
-      <c r="JR6" s="1656"/>
-      <c r="JS6" t="s" s="1657">
-        <v>34</v>
-      </c>
-      <c r="JT6" s="1658"/>
-      <c r="JU6" s="1659"/>
-      <c r="JV6" s="1660"/>
-      <c r="JW6" s="1661"/>
-      <c r="JX6" s="1662"/>
-      <c r="JY6" s="1663"/>
-      <c r="JZ6" s="1664"/>
-      <c r="KA6" s="1665"/>
-      <c r="KB6" s="1666"/>
-      <c r="KC6" s="1667"/>
-      <c r="KD6" s="1668"/>
-      <c r="KE6" t="s" s="1669">
-        <v>34</v>
-      </c>
-      <c r="KF6" s="1670"/>
-      <c r="KG6" s="1671"/>
-      <c r="KH6" s="1672"/>
-      <c r="KI6" s="1673"/>
-      <c r="KJ6" s="1674"/>
-      <c r="KK6" s="1675"/>
-      <c r="KL6" s="1676"/>
-      <c r="KM6" s="1677"/>
-      <c r="KN6" s="1678"/>
-      <c r="KO6" s="1679"/>
-      <c r="KP6" s="1680"/>
-      <c r="KQ6" t="s" s="1681">
-        <v>34</v>
-      </c>
-      <c r="KR6" s="1682"/>
-      <c r="KS6" s="1683"/>
-      <c r="KT6" s="1684"/>
-      <c r="KU6" s="1685"/>
-      <c r="KV6" s="1686"/>
-      <c r="KW6" s="1687"/>
-      <c r="KX6" s="1688"/>
-      <c r="KY6" s="1689"/>
-      <c r="KZ6" s="1690"/>
-      <c r="LA6" s="1691"/>
-      <c r="LB6" s="1692"/>
-      <c r="LC6" t="s" s="1693">
-        <v>34</v>
-      </c>
-      <c r="LD6" s="1694"/>
-      <c r="LE6" s="1695"/>
-      <c r="LF6" s="1696"/>
-      <c r="LG6" s="1697"/>
-      <c r="LH6" s="1698"/>
-      <c r="LI6" s="1699"/>
-      <c r="LJ6" s="1700"/>
-      <c r="LK6" s="1701"/>
-      <c r="LL6" s="1702"/>
-      <c r="LM6" s="1703"/>
-      <c r="LN6" s="1704"/>
-      <c r="LO6" t="s" s="1705">
-        <v>34</v>
-      </c>
-      <c r="LP6" s="1706"/>
-      <c r="LQ6" s="1707"/>
-      <c r="LR6" s="1708"/>
-      <c r="LS6" s="1709"/>
-      <c r="LT6" s="1710"/>
-      <c r="LU6" s="1711"/>
-      <c r="LV6" s="1712"/>
-      <c r="LW6" s="1713"/>
-      <c r="LX6" s="1714"/>
-      <c r="LY6" s="1715"/>
-      <c r="LZ6" s="1716"/>
+      <c r="A6" s="1427"/>
+      <c r="B6" s="1428"/>
+      <c r="C6" t="s" s="1429">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1430"/>
+      <c r="E6" s="1431"/>
+      <c r="F6" s="1432"/>
+      <c r="G6" s="1433"/>
+      <c r="H6" s="1434"/>
+      <c r="I6" s="1435"/>
+      <c r="J6" s="1436"/>
+      <c r="K6" s="1437"/>
+      <c r="L6" s="1438"/>
+      <c r="M6" s="1439"/>
+      <c r="N6" s="1440"/>
+      <c r="O6" t="s" s="1441">
+        <v>35</v>
+      </c>
+      <c r="P6" s="1442"/>
+      <c r="Q6" s="1443"/>
+      <c r="R6" s="1444"/>
+      <c r="S6" s="1445"/>
+      <c r="T6" s="1446"/>
+      <c r="U6" s="1447"/>
+      <c r="V6" s="1448"/>
+      <c r="W6" s="1449"/>
+      <c r="X6" s="1450"/>
+      <c r="Y6" s="1451"/>
+      <c r="Z6" s="1452"/>
+      <c r="AA6" t="s" s="1453">
+        <v>35</v>
+      </c>
+      <c r="AB6" s="1454"/>
+      <c r="AC6" s="1455"/>
+      <c r="AD6" s="1456"/>
+      <c r="AE6" s="1457"/>
+      <c r="AF6" s="1458"/>
+      <c r="AG6" s="1459"/>
+      <c r="AH6" s="1460"/>
+      <c r="AI6" s="1461"/>
+      <c r="AJ6" s="1462"/>
+      <c r="AK6" s="1463"/>
+      <c r="AL6" s="1464"/>
+      <c r="AM6" t="s" s="1465">
+        <v>35</v>
+      </c>
+      <c r="AN6" s="1466"/>
+      <c r="AO6" s="1467"/>
+      <c r="AP6" s="1468"/>
+      <c r="AQ6" s="1469"/>
+      <c r="AR6" s="1470"/>
+      <c r="AS6" s="1471"/>
+      <c r="AT6" s="1472"/>
+      <c r="AU6" s="1473"/>
+      <c r="AV6" s="1474"/>
+      <c r="AW6" s="1475"/>
+      <c r="AX6" s="1476"/>
+      <c r="AY6" t="s" s="1477">
+        <v>35</v>
+      </c>
+      <c r="AZ6" s="1478"/>
+      <c r="BA6" s="1479"/>
+      <c r="BB6" s="1480"/>
+      <c r="BC6" s="1481"/>
+      <c r="BD6" s="1482"/>
+      <c r="BE6" s="1483"/>
+      <c r="BF6" s="1484"/>
+      <c r="BG6" s="1485"/>
+      <c r="BH6" s="1486"/>
+      <c r="BI6" s="1487"/>
+      <c r="BJ6" s="1488"/>
+      <c r="BK6" t="s" s="1489">
+        <v>35</v>
+      </c>
+      <c r="BL6" s="1490"/>
+      <c r="BM6" s="1491"/>
+      <c r="BN6" s="1492"/>
+      <c r="BO6" s="1493"/>
+      <c r="BP6" s="1494"/>
+      <c r="BQ6" s="1495"/>
+      <c r="BR6" s="1496"/>
+      <c r="BS6" s="1497"/>
+      <c r="BT6" s="1498"/>
+      <c r="BU6" s="1499"/>
+      <c r="BV6" s="1500"/>
+      <c r="BW6" t="s" s="1501">
+        <v>35</v>
+      </c>
+      <c r="BX6" s="1502"/>
+      <c r="BY6" s="1503"/>
+      <c r="BZ6" s="1504"/>
+      <c r="CA6" s="1505"/>
+      <c r="CB6" s="1506"/>
+      <c r="CC6" s="1507"/>
+      <c r="CD6" s="1508"/>
+      <c r="CE6" s="1509"/>
+      <c r="CF6" s="1510"/>
+      <c r="CG6" s="1511"/>
+      <c r="CH6" s="1512"/>
+      <c r="CI6" t="s" s="1513">
+        <v>35</v>
+      </c>
+      <c r="CJ6" s="1514"/>
+      <c r="CK6" s="1515"/>
+      <c r="CL6" s="1516"/>
+      <c r="CM6" s="1517"/>
+      <c r="CN6" s="1518"/>
+      <c r="CO6" s="1519"/>
+      <c r="CP6" s="1520"/>
+      <c r="CQ6" s="1521"/>
+      <c r="CR6" s="1522"/>
+      <c r="CS6" s="1523"/>
+      <c r="CT6" s="1524"/>
+      <c r="CU6" t="s" s="1525">
+        <v>35</v>
+      </c>
+      <c r="CV6" s="1526"/>
+      <c r="CW6" s="1527"/>
+      <c r="CX6" s="1528"/>
+      <c r="CY6" s="1529"/>
+      <c r="CZ6" s="1530"/>
+      <c r="DA6" s="1531"/>
+      <c r="DB6" s="1532"/>
+      <c r="DC6" s="1533"/>
+      <c r="DD6" s="1534"/>
+      <c r="DE6" s="1535"/>
+      <c r="DF6" s="1536"/>
+      <c r="DG6" t="s" s="1537">
+        <v>35</v>
+      </c>
+      <c r="DH6" s="1538"/>
+      <c r="DI6" s="1539"/>
+      <c r="DJ6" s="1540"/>
+      <c r="DK6" s="1541"/>
+      <c r="DL6" s="1542"/>
+      <c r="DM6" s="1543"/>
+      <c r="DN6" s="1544"/>
+      <c r="DO6" s="1545"/>
+      <c r="DP6" s="1546"/>
+      <c r="DQ6" s="1547"/>
+      <c r="DR6" s="1548"/>
+      <c r="DS6" t="s" s="1549">
+        <v>35</v>
+      </c>
+      <c r="DT6" s="1550"/>
+      <c r="DU6" s="1551"/>
+      <c r="DV6" s="1552"/>
+      <c r="DW6" s="1553"/>
+      <c r="DX6" s="1554"/>
+      <c r="DY6" s="1555"/>
+      <c r="DZ6" s="1556"/>
+      <c r="EA6" s="1557"/>
+      <c r="EB6" s="1558"/>
+      <c r="EC6" s="1559"/>
+      <c r="ED6" s="1560"/>
+      <c r="EE6" t="s" s="1561">
+        <v>35</v>
+      </c>
+      <c r="EF6" s="1562"/>
+      <c r="EG6" s="1563"/>
+      <c r="EH6" s="1564"/>
+      <c r="EI6" s="1565"/>
+      <c r="EJ6" s="1566"/>
+      <c r="EK6" s="1567"/>
+      <c r="EL6" s="1568"/>
+      <c r="EM6" s="1569"/>
+      <c r="EN6" s="1570"/>
+      <c r="EO6" s="1571"/>
+      <c r="EP6" s="1572"/>
+      <c r="EQ6" t="s" s="1573">
+        <v>35</v>
+      </c>
+      <c r="ER6" s="1574"/>
+      <c r="ES6" s="1575"/>
+      <c r="ET6" s="1576"/>
+      <c r="EU6" s="1577"/>
+      <c r="EV6" s="1578"/>
+      <c r="EW6" s="1579"/>
+      <c r="EX6" s="1580"/>
+      <c r="EY6" s="1581"/>
+      <c r="EZ6" s="1582"/>
+      <c r="FA6" s="1583"/>
+      <c r="FB6" s="1584"/>
+      <c r="FC6" t="s" s="1585">
+        <v>35</v>
+      </c>
+      <c r="FD6" s="1586"/>
+      <c r="FE6" s="1587"/>
+      <c r="FF6" s="1588"/>
+      <c r="FG6" s="1589"/>
+      <c r="FH6" s="1590"/>
+      <c r="FI6" s="1591"/>
+      <c r="FJ6" s="1592"/>
+      <c r="FK6" s="1593"/>
+      <c r="FL6" s="1594"/>
+      <c r="FM6" s="1595"/>
+      <c r="FN6" s="1596"/>
+      <c r="FO6" t="s" s="1597">
+        <v>35</v>
+      </c>
+      <c r="FP6" s="1598"/>
+      <c r="FQ6" s="1599"/>
+      <c r="FR6" s="1600"/>
+      <c r="FS6" s="1601"/>
+      <c r="FT6" s="1602"/>
+      <c r="FU6" s="1603"/>
+      <c r="FV6" s="1604"/>
+      <c r="FW6" s="1605"/>
+      <c r="FX6" s="1606"/>
+      <c r="FY6" s="1607"/>
+      <c r="FZ6" s="1608"/>
+      <c r="GA6" t="s" s="1609">
+        <v>35</v>
+      </c>
+      <c r="GB6" s="1610"/>
+      <c r="GC6" s="1611"/>
+      <c r="GD6" s="1612"/>
+      <c r="GE6" s="1613"/>
+      <c r="GF6" s="1614"/>
+      <c r="GG6" s="1615"/>
+      <c r="GH6" s="1616"/>
+      <c r="GI6" s="1617"/>
+      <c r="GJ6" s="1618"/>
+      <c r="GK6" s="1619"/>
+      <c r="GL6" s="1620"/>
+      <c r="GM6" t="s" s="1621">
+        <v>35</v>
+      </c>
+      <c r="GN6" s="1622"/>
+      <c r="GO6" s="1623"/>
+      <c r="GP6" s="1624"/>
+      <c r="GQ6" s="1625"/>
+      <c r="GR6" s="1626"/>
+      <c r="GS6" s="1627"/>
+      <c r="GT6" s="1628"/>
+      <c r="GU6" s="1629"/>
+      <c r="GV6" s="1630"/>
+      <c r="GW6" s="1631"/>
+      <c r="GX6" s="1632"/>
+      <c r="GY6" t="s" s="1633">
+        <v>35</v>
+      </c>
+      <c r="GZ6" s="1634"/>
+      <c r="HA6" s="1635"/>
+      <c r="HB6" s="1636"/>
+      <c r="HC6" s="1637"/>
+      <c r="HD6" s="1638"/>
+      <c r="HE6" s="1639"/>
+      <c r="HF6" s="1640"/>
+      <c r="HG6" s="1641"/>
+      <c r="HH6" s="1642"/>
+      <c r="HI6" s="1643"/>
+      <c r="HJ6" s="1644"/>
+      <c r="HK6" t="s" s="1645">
+        <v>35</v>
+      </c>
+      <c r="HL6" s="1646"/>
+      <c r="HM6" s="1647"/>
+      <c r="HN6" s="1648"/>
+      <c r="HO6" s="1649"/>
+      <c r="HP6" s="1650"/>
+      <c r="HQ6" s="1651"/>
+      <c r="HR6" s="1652"/>
+      <c r="HS6" s="1653"/>
+      <c r="HT6" s="1654"/>
+      <c r="HU6" s="1655"/>
+      <c r="HV6" s="1656"/>
+      <c r="HW6" t="s" s="1657">
+        <v>35</v>
+      </c>
+      <c r="HX6" s="1658"/>
+      <c r="HY6" s="1659"/>
+      <c r="HZ6" s="1660"/>
+      <c r="IA6" s="1661"/>
+      <c r="IB6" s="1662"/>
+      <c r="IC6" s="1663"/>
+      <c r="ID6" s="1664"/>
+      <c r="IE6" s="1665"/>
+      <c r="IF6" s="1666"/>
+      <c r="IG6" s="1667"/>
+      <c r="IH6" s="1668"/>
+      <c r="II6" t="s" s="1669">
+        <v>35</v>
+      </c>
+      <c r="IJ6" s="1670"/>
+      <c r="IK6" s="1671"/>
+      <c r="IL6" s="1672"/>
+      <c r="IM6" s="1673"/>
+      <c r="IN6" s="1674"/>
+      <c r="IO6" s="1675"/>
+      <c r="IP6" s="1676"/>
+      <c r="IQ6" s="1677"/>
+      <c r="IR6" s="1678"/>
+      <c r="IS6" s="1679"/>
+      <c r="IT6" s="1680"/>
+      <c r="IU6" t="s" s="1681">
+        <v>35</v>
+      </c>
+      <c r="IV6" s="1682"/>
+      <c r="IW6" s="1683"/>
+      <c r="IX6" s="1684"/>
+      <c r="IY6" s="1685"/>
+      <c r="IZ6" s="1686"/>
+      <c r="JA6" s="1687"/>
+      <c r="JB6" s="1688"/>
+      <c r="JC6" s="1689"/>
+      <c r="JD6" s="1690"/>
+      <c r="JE6" s="1691"/>
+      <c r="JF6" s="1692"/>
+      <c r="JG6" t="s" s="1693">
+        <v>35</v>
+      </c>
+      <c r="JH6" s="1694"/>
+      <c r="JI6" s="1695"/>
+      <c r="JJ6" s="1696"/>
+      <c r="JK6" s="1697"/>
+      <c r="JL6" s="1698"/>
+      <c r="JM6" s="1699"/>
+      <c r="JN6" s="1700"/>
+      <c r="JO6" s="1701"/>
+      <c r="JP6" s="1702"/>
+      <c r="JQ6" s="1703"/>
+      <c r="JR6" s="1704"/>
+      <c r="JS6" t="s" s="1705">
+        <v>35</v>
+      </c>
+      <c r="JT6" s="1706"/>
+      <c r="JU6" s="1707"/>
+      <c r="JV6" s="1708"/>
+      <c r="JW6" s="1709"/>
+      <c r="JX6" s="1710"/>
+      <c r="JY6" s="1711"/>
+      <c r="JZ6" s="1712"/>
+      <c r="KA6" s="1713"/>
+      <c r="KB6" s="1714"/>
+      <c r="KC6" s="1715"/>
+      <c r="KD6" s="1716"/>
+      <c r="KE6" t="s" s="1717">
+        <v>35</v>
+      </c>
+      <c r="KF6" s="1718"/>
+      <c r="KG6" s="1719"/>
+      <c r="KH6" s="1720"/>
+      <c r="KI6" s="1721"/>
+      <c r="KJ6" s="1722"/>
+      <c r="KK6" s="1723"/>
+      <c r="KL6" s="1724"/>
+      <c r="KM6" s="1725"/>
+      <c r="KN6" s="1726"/>
+      <c r="KO6" s="1727"/>
+      <c r="KP6" s="1728"/>
+      <c r="KQ6" t="s" s="1729">
+        <v>35</v>
+      </c>
+      <c r="KR6" s="1730"/>
+      <c r="KS6" s="1731"/>
+      <c r="KT6" s="1732"/>
+      <c r="KU6" s="1733"/>
+      <c r="KV6" s="1734"/>
+      <c r="KW6" s="1735"/>
+      <c r="KX6" s="1736"/>
+      <c r="KY6" s="1737"/>
+      <c r="KZ6" s="1738"/>
+      <c r="LA6" s="1739"/>
+      <c r="LB6" s="1740"/>
+      <c r="LC6" t="s" s="1741">
+        <v>35</v>
+      </c>
+      <c r="LD6" s="1742"/>
+      <c r="LE6" s="1743"/>
+      <c r="LF6" s="1744"/>
+      <c r="LG6" s="1745"/>
+      <c r="LH6" s="1746"/>
+      <c r="LI6" s="1747"/>
+      <c r="LJ6" s="1748"/>
+      <c r="LK6" s="1749"/>
+      <c r="LL6" s="1750"/>
+      <c r="LM6" s="1751"/>
+      <c r="LN6" s="1752"/>
+      <c r="LO6" t="s" s="1753">
+        <v>35</v>
+      </c>
+      <c r="LP6" s="1754"/>
+      <c r="LQ6" s="1755"/>
+      <c r="LR6" s="1756"/>
+      <c r="LS6" s="1757"/>
+      <c r="LT6" s="1758"/>
+      <c r="LU6" s="1759"/>
+      <c r="LV6" s="1760"/>
+      <c r="LW6" s="1761"/>
+      <c r="LX6" s="1762"/>
+      <c r="LY6" s="1763"/>
+      <c r="LZ6" s="1764"/>
+      <c r="MA6" t="s" s="1765">
+        <v>35</v>
+      </c>
+      <c r="MB6" s="1766"/>
+      <c r="MC6" s="1767"/>
+      <c r="MD6" s="1768"/>
+      <c r="ME6" s="1769"/>
+      <c r="MF6" s="1770"/>
+      <c r="MG6" s="1771"/>
+      <c r="MH6" s="1772"/>
+      <c r="MI6" s="1773"/>
+      <c r="MJ6" s="1774"/>
+      <c r="MK6" s="1775"/>
+      <c r="ML6" s="1776"/>
     </row>
     <row r="7">
-      <c r="A7" s="1717"/>
-      <c r="B7" s="1718"/>
-      <c r="C7" t="s" s="1719">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="1720">
+      <c r="A7" s="1777"/>
+      <c r="B7" s="1778"/>
+      <c r="C7" t="s" s="1779">
         <v>36</v>
       </c>
-      <c r="E7" t="s" s="1721">
+      <c r="D7" t="s" s="1780">
         <v>37</v>
       </c>
-      <c r="F7" t="s" s="1722">
+      <c r="E7" t="s" s="1781">
         <v>38</v>
       </c>
-      <c r="G7" t="s" s="1723">
+      <c r="F7" t="s" s="1782">
         <v>39</v>
       </c>
-      <c r="H7" t="s" s="1724">
+      <c r="G7" t="s" s="1783">
         <v>40</v>
       </c>
-      <c r="I7" t="s" s="1725">
+      <c r="H7" t="s" s="1784">
         <v>41</v>
       </c>
-      <c r="J7" t="s" s="1726">
+      <c r="I7" t="s" s="1785">
         <v>42</v>
       </c>
-      <c r="K7" t="s" s="1727">
+      <c r="J7" t="s" s="1786">
         <v>43</v>
       </c>
-      <c r="L7" t="s" s="1728">
+      <c r="K7" t="s" s="1787">
         <v>44</v>
       </c>
-      <c r="M7" t="s" s="1729">
+      <c r="L7" t="s" s="1788">
         <v>45</v>
       </c>
-      <c r="N7" t="s" s="1730">
+      <c r="M7" t="s" s="1789">
         <v>46</v>
       </c>
-      <c r="O7" t="s" s="1731">
-        <v>35</v>
-      </c>
-      <c r="P7" t="s" s="1732">
+      <c r="N7" t="s" s="1790">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s" s="1791">
         <v>36</v>
       </c>
-      <c r="Q7" t="s" s="1733">
+      <c r="P7" t="s" s="1792">
         <v>37</v>
       </c>
-      <c r="R7" t="s" s="1734">
+      <c r="Q7" t="s" s="1793">
         <v>38</v>
       </c>
-      <c r="S7" t="s" s="1735">
+      <c r="R7" t="s" s="1794">
         <v>39</v>
       </c>
-      <c r="T7" t="s" s="1736">
+      <c r="S7" t="s" s="1795">
         <v>40</v>
       </c>
-      <c r="U7" t="s" s="1737">
+      <c r="T7" t="s" s="1796">
         <v>41</v>
       </c>
-      <c r="V7" t="s" s="1738">
+      <c r="U7" t="s" s="1797">
         <v>42</v>
       </c>
-      <c r="W7" t="s" s="1739">
+      <c r="V7" t="s" s="1798">
         <v>43</v>
       </c>
-      <c r="X7" t="s" s="1740">
+      <c r="W7" t="s" s="1799">
         <v>44</v>
       </c>
-      <c r="Y7" t="s" s="1741">
+      <c r="X7" t="s" s="1800">
         <v>45</v>
       </c>
-      <c r="Z7" t="s" s="1742">
+      <c r="Y7" t="s" s="1801">
         <v>46</v>
       </c>
-      <c r="AA7" t="s" s="1743">
-        <v>35</v>
-      </c>
-      <c r="AB7" t="s" s="1744">
+      <c r="Z7" t="s" s="1802">
+        <v>47</v>
+      </c>
+      <c r="AA7" t="s" s="1803">
         <v>36</v>
       </c>
-      <c r="AC7" t="s" s="1745">
+      <c r="AB7" t="s" s="1804">
         <v>37</v>
       </c>
-      <c r="AD7" t="s" s="1746">
+      <c r="AC7" t="s" s="1805">
         <v>38</v>
       </c>
-      <c r="AE7" t="s" s="1747">
+      <c r="AD7" t="s" s="1806">
         <v>39</v>
       </c>
-      <c r="AF7" t="s" s="1748">
+      <c r="AE7" t="s" s="1807">
         <v>40</v>
       </c>
-      <c r="AG7" t="s" s="1749">
+      <c r="AF7" t="s" s="1808">
         <v>41</v>
       </c>
-      <c r="AH7" t="s" s="1750">
+      <c r="AG7" t="s" s="1809">
         <v>42</v>
       </c>
-      <c r="AI7" t="s" s="1751">
+      <c r="AH7" t="s" s="1810">
         <v>43</v>
       </c>
-      <c r="AJ7" t="s" s="1752">
+      <c r="AI7" t="s" s="1811">
         <v>44</v>
       </c>
-      <c r="AK7" t="s" s="1753">
+      <c r="AJ7" t="s" s="1812">
         <v>45</v>
       </c>
-      <c r="AL7" t="s" s="1754">
+      <c r="AK7" t="s" s="1813">
         <v>46</v>
       </c>
-      <c r="AM7" t="s" s="1755">
-        <v>35</v>
-      </c>
-      <c r="AN7" t="s" s="1756">
+      <c r="AL7" t="s" s="1814">
+        <v>47</v>
+      </c>
+      <c r="AM7" t="s" s="1815">
         <v>36</v>
       </c>
-      <c r="AO7" t="s" s="1757">
+      <c r="AN7" t="s" s="1816">
         <v>37</v>
       </c>
-      <c r="AP7" t="s" s="1758">
+      <c r="AO7" t="s" s="1817">
         <v>38</v>
       </c>
-      <c r="AQ7" t="s" s="1759">
+      <c r="AP7" t="s" s="1818">
         <v>39</v>
       </c>
-      <c r="AR7" t="s" s="1760">
+      <c r="AQ7" t="s" s="1819">
         <v>40</v>
       </c>
-      <c r="AS7" t="s" s="1761">
+      <c r="AR7" t="s" s="1820">
         <v>41</v>
       </c>
-      <c r="AT7" t="s" s="1762">
+      <c r="AS7" t="s" s="1821">
         <v>42</v>
       </c>
-      <c r="AU7" t="s" s="1763">
+      <c r="AT7" t="s" s="1822">
         <v>43</v>
       </c>
-      <c r="AV7" t="s" s="1764">
+      <c r="AU7" t="s" s="1823">
         <v>44</v>
       </c>
-      <c r="AW7" t="s" s="1765">
+      <c r="AV7" t="s" s="1824">
         <v>45</v>
       </c>
-      <c r="AX7" t="s" s="1766">
+      <c r="AW7" t="s" s="1825">
         <v>46</v>
       </c>
-      <c r="AY7" t="s" s="1767">
-        <v>35</v>
-      </c>
-      <c r="AZ7" t="s" s="1768">
+      <c r="AX7" t="s" s="1826">
+        <v>47</v>
+      </c>
+      <c r="AY7" t="s" s="1827">
         <v>36</v>
       </c>
-      <c r="BA7" t="s" s="1769">
+      <c r="AZ7" t="s" s="1828">
         <v>37</v>
       </c>
-      <c r="BB7" t="s" s="1770">
+      <c r="BA7" t="s" s="1829">
         <v>38</v>
       </c>
-      <c r="BC7" t="s" s="1771">
+      <c r="BB7" t="s" s="1830">
         <v>39</v>
       </c>
-      <c r="BD7" t="s" s="1772">
+      <c r="BC7" t="s" s="1831">
         <v>40</v>
       </c>
-      <c r="BE7" t="s" s="1773">
+      <c r="BD7" t="s" s="1832">
         <v>41</v>
       </c>
-      <c r="BF7" t="s" s="1774">
+      <c r="BE7" t="s" s="1833">
         <v>42</v>
       </c>
-      <c r="BG7" t="s" s="1775">
+      <c r="BF7" t="s" s="1834">
         <v>43</v>
       </c>
-      <c r="BH7" t="s" s="1776">
+      <c r="BG7" t="s" s="1835">
         <v>44</v>
       </c>
-      <c r="BI7" t="s" s="1777">
+      <c r="BH7" t="s" s="1836">
         <v>45</v>
       </c>
-      <c r="BJ7" t="s" s="1778">
+      <c r="BI7" t="s" s="1837">
         <v>46</v>
       </c>
-      <c r="BK7" t="s" s="1779">
-        <v>35</v>
-      </c>
-      <c r="BL7" t="s" s="1780">
+      <c r="BJ7" t="s" s="1838">
+        <v>47</v>
+      </c>
+      <c r="BK7" t="s" s="1839">
         <v>36</v>
       </c>
-      <c r="BM7" t="s" s="1781">
+      <c r="BL7" t="s" s="1840">
         <v>37</v>
       </c>
-      <c r="BN7" t="s" s="1782">
+      <c r="BM7" t="s" s="1841">
         <v>38</v>
       </c>
-      <c r="BO7" t="s" s="1783">
+      <c r="BN7" t="s" s="1842">
         <v>39</v>
       </c>
-      <c r="BP7" t="s" s="1784">
+      <c r="BO7" t="s" s="1843">
         <v>40</v>
       </c>
-      <c r="BQ7" t="s" s="1785">
+      <c r="BP7" t="s" s="1844">
         <v>41</v>
       </c>
-      <c r="BR7" t="s" s="1786">
+      <c r="BQ7" t="s" s="1845">
         <v>42</v>
       </c>
-      <c r="BS7" t="s" s="1787">
+      <c r="BR7" t="s" s="1846">
         <v>43</v>
       </c>
-      <c r="BT7" t="s" s="1788">
+      <c r="BS7" t="s" s="1847">
         <v>44</v>
       </c>
-      <c r="BU7" t="s" s="1789">
+      <c r="BT7" t="s" s="1848">
         <v>45</v>
       </c>
-      <c r="BV7" t="s" s="1790">
+      <c r="BU7" t="s" s="1849">
         <v>46</v>
       </c>
-      <c r="BW7" t="s" s="1791">
-        <v>35</v>
-      </c>
-      <c r="BX7" t="s" s="1792">
+      <c r="BV7" t="s" s="1850">
+        <v>47</v>
+      </c>
+      <c r="BW7" t="s" s="1851">
         <v>36</v>
       </c>
-      <c r="BY7" t="s" s="1793">
+      <c r="BX7" t="s" s="1852">
         <v>37</v>
       </c>
-      <c r="BZ7" t="s" s="1794">
+      <c r="BY7" t="s" s="1853">
         <v>38</v>
       </c>
-      <c r="CA7" t="s" s="1795">
+      <c r="BZ7" t="s" s="1854">
         <v>39</v>
       </c>
-      <c r="CB7" t="s" s="1796">
+      <c r="CA7" t="s" s="1855">
         <v>40</v>
       </c>
-      <c r="CC7" t="s" s="1797">
+      <c r="CB7" t="s" s="1856">
         <v>41</v>
       </c>
-      <c r="CD7" t="s" s="1798">
+      <c r="CC7" t="s" s="1857">
         <v>42</v>
       </c>
-      <c r="CE7" t="s" s="1799">
+      <c r="CD7" t="s" s="1858">
         <v>43</v>
       </c>
-      <c r="CF7" t="s" s="1800">
+      <c r="CE7" t="s" s="1859">
         <v>44</v>
       </c>
-      <c r="CG7" t="s" s="1801">
+      <c r="CF7" t="s" s="1860">
         <v>45</v>
       </c>
-      <c r="CH7" t="s" s="1802">
+      <c r="CG7" t="s" s="1861">
         <v>46</v>
       </c>
-      <c r="CI7" t="s" s="1803">
-        <v>35</v>
-      </c>
-      <c r="CJ7" t="s" s="1804">
+      <c r="CH7" t="s" s="1862">
+        <v>47</v>
+      </c>
+      <c r="CI7" t="s" s="1863">
         <v>36</v>
       </c>
-      <c r="CK7" t="s" s="1805">
+      <c r="CJ7" t="s" s="1864">
         <v>37</v>
       </c>
-      <c r="CL7" t="s" s="1806">
+      <c r="CK7" t="s" s="1865">
         <v>38</v>
       </c>
-      <c r="CM7" t="s" s="1807">
+      <c r="CL7" t="s" s="1866">
         <v>39</v>
       </c>
-      <c r="CN7" t="s" s="1808">
+      <c r="CM7" t="s" s="1867">
         <v>40</v>
       </c>
-      <c r="CO7" t="s" s="1809">
+      <c r="CN7" t="s" s="1868">
         <v>41</v>
       </c>
-      <c r="CP7" t="s" s="1810">
+      <c r="CO7" t="s" s="1869">
         <v>42</v>
       </c>
-      <c r="CQ7" t="s" s="1811">
+      <c r="CP7" t="s" s="1870">
         <v>43</v>
       </c>
-      <c r="CR7" t="s" s="1812">
+      <c r="CQ7" t="s" s="1871">
         <v>44</v>
       </c>
-      <c r="CS7" t="s" s="1813">
+      <c r="CR7" t="s" s="1872">
         <v>45</v>
       </c>
-      <c r="CT7" t="s" s="1814">
+      <c r="CS7" t="s" s="1873">
         <v>46</v>
       </c>
-      <c r="CU7" t="s" s="1815">
-        <v>35</v>
-      </c>
-      <c r="CV7" t="s" s="1816">
+      <c r="CT7" t="s" s="1874">
+        <v>47</v>
+      </c>
+      <c r="CU7" t="s" s="1875">
         <v>36</v>
       </c>
-      <c r="CW7" t="s" s="1817">
+      <c r="CV7" t="s" s="1876">
         <v>37</v>
       </c>
-      <c r="CX7" t="s" s="1818">
+      <c r="CW7" t="s" s="1877">
         <v>38</v>
       </c>
-      <c r="CY7" t="s" s="1819">
+      <c r="CX7" t="s" s="1878">
         <v>39</v>
       </c>
-      <c r="CZ7" t="s" s="1820">
+      <c r="CY7" t="s" s="1879">
         <v>40</v>
       </c>
-      <c r="DA7" t="s" s="1821">
+      <c r="CZ7" t="s" s="1880">
         <v>41</v>
       </c>
-      <c r="DB7" t="s" s="1822">
+      <c r="DA7" t="s" s="1881">
         <v>42</v>
       </c>
-      <c r="DC7" t="s" s="1823">
+      <c r="DB7" t="s" s="1882">
         <v>43</v>
       </c>
-      <c r="DD7" t="s" s="1824">
+      <c r="DC7" t="s" s="1883">
         <v>44</v>
       </c>
-      <c r="DE7" t="s" s="1825">
+      <c r="DD7" t="s" s="1884">
         <v>45</v>
       </c>
-      <c r="DF7" t="s" s="1826">
+      <c r="DE7" t="s" s="1885">
         <v>46</v>
       </c>
-      <c r="DG7" t="s" s="1827">
-        <v>35</v>
-      </c>
-      <c r="DH7" t="s" s="1828">
+      <c r="DF7" t="s" s="1886">
+        <v>47</v>
+      </c>
+      <c r="DG7" t="s" s="1887">
         <v>36</v>
       </c>
-      <c r="DI7" t="s" s="1829">
+      <c r="DH7" t="s" s="1888">
         <v>37</v>
       </c>
-      <c r="DJ7" t="s" s="1830">
+      <c r="DI7" t="s" s="1889">
         <v>38</v>
       </c>
-      <c r="DK7" t="s" s="1831">
+      <c r="DJ7" t="s" s="1890">
         <v>39</v>
       </c>
-      <c r="DL7" t="s" s="1832">
+      <c r="DK7" t="s" s="1891">
         <v>40</v>
       </c>
-      <c r="DM7" t="s" s="1833">
+      <c r="DL7" t="s" s="1892">
         <v>41</v>
       </c>
-      <c r="DN7" t="s" s="1834">
+      <c r="DM7" t="s" s="1893">
         <v>42</v>
       </c>
-      <c r="DO7" t="s" s="1835">
+      <c r="DN7" t="s" s="1894">
         <v>43</v>
       </c>
-      <c r="DP7" t="s" s="1836">
+      <c r="DO7" t="s" s="1895">
         <v>44</v>
       </c>
-      <c r="DQ7" t="s" s="1837">
+      <c r="DP7" t="s" s="1896">
         <v>45</v>
       </c>
-      <c r="DR7" t="s" s="1838">
+      <c r="DQ7" t="s" s="1897">
         <v>46</v>
       </c>
-      <c r="DS7" t="s" s="1839">
-        <v>35</v>
-      </c>
-      <c r="DT7" t="s" s="1840">
+      <c r="DR7" t="s" s="1898">
+        <v>47</v>
+      </c>
+      <c r="DS7" t="s" s="1899">
         <v>36</v>
       </c>
-      <c r="DU7" t="s" s="1841">
+      <c r="DT7" t="s" s="1900">
         <v>37</v>
       </c>
-      <c r="DV7" t="s" s="1842">
+      <c r="DU7" t="s" s="1901">
         <v>38</v>
       </c>
-      <c r="DW7" t="s" s="1843">
+      <c r="DV7" t="s" s="1902">
         <v>39</v>
       </c>
-      <c r="DX7" t="s" s="1844">
+      <c r="DW7" t="s" s="1903">
         <v>40</v>
       </c>
-      <c r="DY7" t="s" s="1845">
+      <c r="DX7" t="s" s="1904">
         <v>41</v>
       </c>
-      <c r="DZ7" t="s" s="1846">
+      <c r="DY7" t="s" s="1905">
         <v>42</v>
       </c>
-      <c r="EA7" t="s" s="1847">
+      <c r="DZ7" t="s" s="1906">
         <v>43</v>
       </c>
-      <c r="EB7" t="s" s="1848">
+      <c r="EA7" t="s" s="1907">
         <v>44</v>
       </c>
-      <c r="EC7" t="s" s="1849">
+      <c r="EB7" t="s" s="1908">
         <v>45</v>
       </c>
-      <c r="ED7" t="s" s="1850">
+      <c r="EC7" t="s" s="1909">
         <v>46</v>
       </c>
-      <c r="EE7" t="s" s="1851">
-        <v>35</v>
-      </c>
-      <c r="EF7" t="s" s="1852">
+      <c r="ED7" t="s" s="1910">
+        <v>47</v>
+      </c>
+      <c r="EE7" t="s" s="1911">
         <v>36</v>
       </c>
-      <c r="EG7" t="s" s="1853">
+      <c r="EF7" t="s" s="1912">
         <v>37</v>
       </c>
-      <c r="EH7" t="s" s="1854">
+      <c r="EG7" t="s" s="1913">
         <v>38</v>
       </c>
-      <c r="EI7" t="s" s="1855">
+      <c r="EH7" t="s" s="1914">
         <v>39</v>
       </c>
-      <c r="EJ7" t="s" s="1856">
+      <c r="EI7" t="s" s="1915">
         <v>40</v>
       </c>
-      <c r="EK7" t="s" s="1857">
+      <c r="EJ7" t="s" s="1916">
         <v>41</v>
       </c>
-      <c r="EL7" t="s" s="1858">
+      <c r="EK7" t="s" s="1917">
         <v>42</v>
       </c>
-      <c r="EM7" t="s" s="1859">
+      <c r="EL7" t="s" s="1918">
         <v>43</v>
       </c>
-      <c r="EN7" t="s" s="1860">
+      <c r="EM7" t="s" s="1919">
         <v>44</v>
       </c>
-      <c r="EO7" t="s" s="1861">
+      <c r="EN7" t="s" s="1920">
         <v>45</v>
       </c>
-      <c r="EP7" t="s" s="1862">
+      <c r="EO7" t="s" s="1921">
         <v>46</v>
       </c>
-      <c r="EQ7" t="s" s="1863">
-        <v>35</v>
-      </c>
-      <c r="ER7" t="s" s="1864">
+      <c r="EP7" t="s" s="1922">
+        <v>47</v>
+      </c>
+      <c r="EQ7" t="s" s="1923">
         <v>36</v>
       </c>
-      <c r="ES7" t="s" s="1865">
+      <c r="ER7" t="s" s="1924">
         <v>37</v>
       </c>
-      <c r="ET7" t="s" s="1866">
+      <c r="ES7" t="s" s="1925">
         <v>38</v>
       </c>
-      <c r="EU7" t="s" s="1867">
+      <c r="ET7" t="s" s="1926">
         <v>39</v>
       </c>
-      <c r="EV7" t="s" s="1868">
+      <c r="EU7" t="s" s="1927">
         <v>40</v>
       </c>
-      <c r="EW7" t="s" s="1869">
+      <c r="EV7" t="s" s="1928">
         <v>41</v>
       </c>
-      <c r="EX7" t="s" s="1870">
+      <c r="EW7" t="s" s="1929">
         <v>42</v>
       </c>
-      <c r="EY7" t="s" s="1871">
+      <c r="EX7" t="s" s="1930">
         <v>43</v>
       </c>
-      <c r="EZ7" t="s" s="1872">
+      <c r="EY7" t="s" s="1931">
         <v>44</v>
       </c>
-      <c r="FA7" t="s" s="1873">
+      <c r="EZ7" t="s" s="1932">
         <v>45</v>
       </c>
-      <c r="FB7" t="s" s="1874">
+      <c r="FA7" t="s" s="1933">
         <v>46</v>
       </c>
-      <c r="FC7" t="s" s="1875">
-        <v>35</v>
-      </c>
-      <c r="FD7" t="s" s="1876">
+      <c r="FB7" t="s" s="1934">
+        <v>47</v>
+      </c>
+      <c r="FC7" t="s" s="1935">
         <v>36</v>
       </c>
-      <c r="FE7" t="s" s="1877">
+      <c r="FD7" t="s" s="1936">
         <v>37</v>
       </c>
-      <c r="FF7" t="s" s="1878">
+      <c r="FE7" t="s" s="1937">
         <v>38</v>
       </c>
-      <c r="FG7" t="s" s="1879">
+      <c r="FF7" t="s" s="1938">
         <v>39</v>
       </c>
-      <c r="FH7" t="s" s="1880">
+      <c r="FG7" t="s" s="1939">
         <v>40</v>
       </c>
-      <c r="FI7" t="s" s="1881">
+      <c r="FH7" t="s" s="1940">
         <v>41</v>
       </c>
-      <c r="FJ7" t="s" s="1882">
+      <c r="FI7" t="s" s="1941">
         <v>42</v>
       </c>
-      <c r="FK7" t="s" s="1883">
+      <c r="FJ7" t="s" s="1942">
         <v>43</v>
       </c>
-      <c r="FL7" t="s" s="1884">
+      <c r="FK7" t="s" s="1943">
         <v>44</v>
       </c>
-      <c r="FM7" t="s" s="1885">
+      <c r="FL7" t="s" s="1944">
         <v>45</v>
       </c>
-      <c r="FN7" t="s" s="1886">
+      <c r="FM7" t="s" s="1945">
         <v>46</v>
       </c>
-      <c r="FO7" t="s" s="1887">
-        <v>35</v>
-      </c>
-      <c r="FP7" t="s" s="1888">
+      <c r="FN7" t="s" s="1946">
+        <v>47</v>
+      </c>
+      <c r="FO7" t="s" s="1947">
         <v>36</v>
       </c>
-      <c r="FQ7" t="s" s="1889">
+      <c r="FP7" t="s" s="1948">
         <v>37</v>
       </c>
-      <c r="FR7" t="s" s="1890">
+      <c r="FQ7" t="s" s="1949">
         <v>38</v>
       </c>
-      <c r="FS7" t="s" s="1891">
+      <c r="FR7" t="s" s="1950">
         <v>39</v>
       </c>
-      <c r="FT7" t="s" s="1892">
+      <c r="FS7" t="s" s="1951">
         <v>40</v>
       </c>
-      <c r="FU7" t="s" s="1893">
+      <c r="FT7" t="s" s="1952">
         <v>41</v>
       </c>
-      <c r="FV7" t="s" s="1894">
+      <c r="FU7" t="s" s="1953">
         <v>42</v>
       </c>
-      <c r="FW7" t="s" s="1895">
+      <c r="FV7" t="s" s="1954">
         <v>43</v>
       </c>
-      <c r="FX7" t="s" s="1896">
+      <c r="FW7" t="s" s="1955">
         <v>44</v>
       </c>
-      <c r="FY7" t="s" s="1897">
+      <c r="FX7" t="s" s="1956">
         <v>45</v>
       </c>
-      <c r="FZ7" t="s" s="1898">
+      <c r="FY7" t="s" s="1957">
         <v>46</v>
       </c>
-      <c r="GA7" t="s" s="1899">
-        <v>35</v>
-      </c>
-      <c r="GB7" t="s" s="1900">
+      <c r="FZ7" t="s" s="1958">
+        <v>47</v>
+      </c>
+      <c r="GA7" t="s" s="1959">
         <v>36</v>
       </c>
-      <c r="GC7" t="s" s="1901">
+      <c r="GB7" t="s" s="1960">
         <v>37</v>
       </c>
-      <c r="GD7" t="s" s="1902">
+      <c r="GC7" t="s" s="1961">
         <v>38</v>
       </c>
-      <c r="GE7" t="s" s="1903">
+      <c r="GD7" t="s" s="1962">
         <v>39</v>
       </c>
-      <c r="GF7" t="s" s="1904">
+      <c r="GE7" t="s" s="1963">
         <v>40</v>
       </c>
-      <c r="GG7" t="s" s="1905">
+      <c r="GF7" t="s" s="1964">
         <v>41</v>
       </c>
-      <c r="GH7" t="s" s="1906">
+      <c r="GG7" t="s" s="1965">
         <v>42</v>
       </c>
-      <c r="GI7" t="s" s="1907">
+      <c r="GH7" t="s" s="1966">
         <v>43</v>
       </c>
-      <c r="GJ7" t="s" s="1908">
+      <c r="GI7" t="s" s="1967">
         <v>44</v>
       </c>
-      <c r="GK7" t="s" s="1909">
+      <c r="GJ7" t="s" s="1968">
         <v>45</v>
       </c>
-      <c r="GL7" t="s" s="1910">
+      <c r="GK7" t="s" s="1969">
         <v>46</v>
       </c>
-      <c r="GM7" t="s" s="1911">
-        <v>35</v>
-      </c>
-      <c r="GN7" t="s" s="1912">
+      <c r="GL7" t="s" s="1970">
+        <v>47</v>
+      </c>
+      <c r="GM7" t="s" s="1971">
         <v>36</v>
       </c>
-      <c r="GO7" t="s" s="1913">
+      <c r="GN7" t="s" s="1972">
         <v>37</v>
       </c>
-      <c r="GP7" t="s" s="1914">
+      <c r="GO7" t="s" s="1973">
         <v>38</v>
       </c>
-      <c r="GQ7" t="s" s="1915">
+      <c r="GP7" t="s" s="1974">
         <v>39</v>
       </c>
-      <c r="GR7" t="s" s="1916">
+      <c r="GQ7" t="s" s="1975">
         <v>40</v>
       </c>
-      <c r="GS7" t="s" s="1917">
+      <c r="GR7" t="s" s="1976">
         <v>41</v>
       </c>
-      <c r="GT7" t="s" s="1918">
+      <c r="GS7" t="s" s="1977">
         <v>42</v>
       </c>
-      <c r="GU7" t="s" s="1919">
+      <c r="GT7" t="s" s="1978">
         <v>43</v>
       </c>
-      <c r="GV7" t="s" s="1920">
+      <c r="GU7" t="s" s="1979">
         <v>44</v>
       </c>
-      <c r="GW7" t="s" s="1921">
+      <c r="GV7" t="s" s="1980">
         <v>45</v>
       </c>
-      <c r="GX7" t="s" s="1922">
+      <c r="GW7" t="s" s="1981">
         <v>46</v>
       </c>
-      <c r="GY7" t="s" s="1923">
-        <v>35</v>
-      </c>
-      <c r="GZ7" t="s" s="1924">
+      <c r="GX7" t="s" s="1982">
+        <v>47</v>
+      </c>
+      <c r="GY7" t="s" s="1983">
         <v>36</v>
       </c>
-      <c r="HA7" t="s" s="1925">
+      <c r="GZ7" t="s" s="1984">
         <v>37</v>
       </c>
-      <c r="HB7" t="s" s="1926">
+      <c r="HA7" t="s" s="1985">
         <v>38</v>
       </c>
-      <c r="HC7" t="s" s="1927">
+      <c r="HB7" t="s" s="1986">
         <v>39</v>
       </c>
-      <c r="HD7" t="s" s="1928">
+      <c r="HC7" t="s" s="1987">
         <v>40</v>
       </c>
-      <c r="HE7" t="s" s="1929">
+      <c r="HD7" t="s" s="1988">
         <v>41</v>
       </c>
-      <c r="HF7" t="s" s="1930">
+      <c r="HE7" t="s" s="1989">
         <v>42</v>
       </c>
-      <c r="HG7" t="s" s="1931">
+      <c r="HF7" t="s" s="1990">
         <v>43</v>
       </c>
-      <c r="HH7" t="s" s="1932">
+      <c r="HG7" t="s" s="1991">
         <v>44</v>
       </c>
-      <c r="HI7" t="s" s="1933">
+      <c r="HH7" t="s" s="1992">
         <v>45</v>
       </c>
-      <c r="HJ7" t="s" s="1934">
+      <c r="HI7" t="s" s="1993">
         <v>46</v>
       </c>
-      <c r="HK7" t="s" s="1935">
-        <v>35</v>
-      </c>
-      <c r="HL7" t="s" s="1936">
+      <c r="HJ7" t="s" s="1994">
+        <v>47</v>
+      </c>
+      <c r="HK7" t="s" s="1995">
         <v>36</v>
       </c>
-      <c r="HM7" t="s" s="1937">
+      <c r="HL7" t="s" s="1996">
         <v>37</v>
       </c>
-      <c r="HN7" t="s" s="1938">
+      <c r="HM7" t="s" s="1997">
         <v>38</v>
       </c>
-      <c r="HO7" t="s" s="1939">
+      <c r="HN7" t="s" s="1998">
         <v>39</v>
       </c>
-      <c r="HP7" t="s" s="1940">
+      <c r="HO7" t="s" s="1999">
         <v>40</v>
       </c>
-      <c r="HQ7" t="s" s="1941">
+      <c r="HP7" t="s" s="2000">
         <v>41</v>
       </c>
-      <c r="HR7" t="s" s="1942">
+      <c r="HQ7" t="s" s="2001">
         <v>42</v>
       </c>
-      <c r="HS7" t="s" s="1943">
+      <c r="HR7" t="s" s="2002">
         <v>43</v>
       </c>
-      <c r="HT7" t="s" s="1944">
+      <c r="HS7" t="s" s="2003">
         <v>44</v>
       </c>
-      <c r="HU7" t="s" s="1945">
+      <c r="HT7" t="s" s="2004">
         <v>45</v>
       </c>
-      <c r="HV7" t="s" s="1946">
+      <c r="HU7" t="s" s="2005">
         <v>46</v>
       </c>
-      <c r="HW7" t="s" s="1947">
-        <v>35</v>
-      </c>
-      <c r="HX7" t="s" s="1948">
+      <c r="HV7" t="s" s="2006">
+        <v>47</v>
+      </c>
+      <c r="HW7" t="s" s="2007">
         <v>36</v>
       </c>
-      <c r="HY7" t="s" s="1949">
+      <c r="HX7" t="s" s="2008">
         <v>37</v>
       </c>
-      <c r="HZ7" t="s" s="1950">
+      <c r="HY7" t="s" s="2009">
         <v>38</v>
       </c>
-      <c r="IA7" t="s" s="1951">
+      <c r="HZ7" t="s" s="2010">
         <v>39</v>
       </c>
-      <c r="IB7" t="s" s="1952">
+      <c r="IA7" t="s" s="2011">
         <v>40</v>
       </c>
-      <c r="IC7" t="s" s="1953">
+      <c r="IB7" t="s" s="2012">
         <v>41</v>
       </c>
-      <c r="ID7" t="s" s="1954">
+      <c r="IC7" t="s" s="2013">
         <v>42</v>
       </c>
-      <c r="IE7" t="s" s="1955">
+      <c r="ID7" t="s" s="2014">
         <v>43</v>
       </c>
-      <c r="IF7" t="s" s="1956">
+      <c r="IE7" t="s" s="2015">
         <v>44</v>
       </c>
-      <c r="IG7" t="s" s="1957">
+      <c r="IF7" t="s" s="2016">
         <v>45</v>
       </c>
-      <c r="IH7" t="s" s="1958">
+      <c r="IG7" t="s" s="2017">
         <v>46</v>
       </c>
-      <c r="II7" t="s" s="1959">
-        <v>35</v>
-      </c>
-      <c r="IJ7" t="s" s="1960">
+      <c r="IH7" t="s" s="2018">
+        <v>47</v>
+      </c>
+      <c r="II7" t="s" s="2019">
         <v>36</v>
       </c>
-      <c r="IK7" t="s" s="1961">
+      <c r="IJ7" t="s" s="2020">
         <v>37</v>
       </c>
-      <c r="IL7" t="s" s="1962">
+      <c r="IK7" t="s" s="2021">
         <v>38</v>
       </c>
-      <c r="IM7" t="s" s="1963">
+      <c r="IL7" t="s" s="2022">
         <v>39</v>
       </c>
-      <c r="IN7" t="s" s="1964">
+      <c r="IM7" t="s" s="2023">
         <v>40</v>
       </c>
-      <c r="IO7" t="s" s="1965">
+      <c r="IN7" t="s" s="2024">
         <v>41</v>
       </c>
-      <c r="IP7" t="s" s="1966">
+      <c r="IO7" t="s" s="2025">
         <v>42</v>
       </c>
-      <c r="IQ7" t="s" s="1967">
+      <c r="IP7" t="s" s="2026">
         <v>43</v>
       </c>
-      <c r="IR7" t="s" s="1968">
+      <c r="IQ7" t="s" s="2027">
         <v>44</v>
       </c>
-      <c r="IS7" t="s" s="1969">
+      <c r="IR7" t="s" s="2028">
         <v>45</v>
       </c>
-      <c r="IT7" t="s" s="1970">
+      <c r="IS7" t="s" s="2029">
         <v>46</v>
       </c>
-      <c r="IU7" t="s" s="1971">
-        <v>35</v>
-      </c>
-      <c r="IV7" t="s" s="1972">
+      <c r="IT7" t="s" s="2030">
+        <v>47</v>
+      </c>
+      <c r="IU7" t="s" s="2031">
         <v>36</v>
       </c>
-      <c r="IW7" t="s" s="1973">
+      <c r="IV7" t="s" s="2032">
         <v>37</v>
       </c>
-      <c r="IX7" t="s" s="1974">
+      <c r="IW7" t="s" s="2033">
         <v>38</v>
       </c>
-      <c r="IY7" t="s" s="1975">
+      <c r="IX7" t="s" s="2034">
         <v>39</v>
       </c>
-      <c r="IZ7" t="s" s="1976">
+      <c r="IY7" t="s" s="2035">
         <v>40</v>
       </c>
-      <c r="JA7" t="s" s="1977">
+      <c r="IZ7" t="s" s="2036">
         <v>41</v>
       </c>
-      <c r="JB7" t="s" s="1978">
+      <c r="JA7" t="s" s="2037">
         <v>42</v>
       </c>
-      <c r="JC7" t="s" s="1979">
+      <c r="JB7" t="s" s="2038">
         <v>43</v>
       </c>
-      <c r="JD7" t="s" s="1980">
+      <c r="JC7" t="s" s="2039">
         <v>44</v>
       </c>
-      <c r="JE7" t="s" s="1981">
+      <c r="JD7" t="s" s="2040">
         <v>45</v>
       </c>
-      <c r="JF7" t="s" s="1982">
+      <c r="JE7" t="s" s="2041">
         <v>46</v>
       </c>
-      <c r="JG7" t="s" s="1983">
-        <v>35</v>
-      </c>
-      <c r="JH7" t="s" s="1984">
+      <c r="JF7" t="s" s="2042">
+        <v>47</v>
+      </c>
+      <c r="JG7" t="s" s="2043">
         <v>36</v>
       </c>
-      <c r="JI7" t="s" s="1985">
+      <c r="JH7" t="s" s="2044">
         <v>37</v>
       </c>
-      <c r="JJ7" t="s" s="1986">
+      <c r="JI7" t="s" s="2045">
         <v>38</v>
       </c>
-      <c r="JK7" t="s" s="1987">
+      <c r="JJ7" t="s" s="2046">
         <v>39</v>
       </c>
-      <c r="JL7" t="s" s="1988">
+      <c r="JK7" t="s" s="2047">
         <v>40</v>
       </c>
-      <c r="JM7" t="s" s="1989">
+      <c r="JL7" t="s" s="2048">
         <v>41</v>
       </c>
-      <c r="JN7" t="s" s="1990">
+      <c r="JM7" t="s" s="2049">
         <v>42</v>
       </c>
-      <c r="JO7" t="s" s="1991">
+      <c r="JN7" t="s" s="2050">
         <v>43</v>
       </c>
-      <c r="JP7" t="s" s="1992">
+      <c r="JO7" t="s" s="2051">
         <v>44</v>
       </c>
-      <c r="JQ7" t="s" s="1993">
+      <c r="JP7" t="s" s="2052">
         <v>45</v>
       </c>
-      <c r="JR7" t="s" s="1994">
+      <c r="JQ7" t="s" s="2053">
         <v>46</v>
       </c>
-      <c r="JS7" t="s" s="1995">
-        <v>35</v>
-      </c>
-      <c r="JT7" t="s" s="1996">
+      <c r="JR7" t="s" s="2054">
+        <v>47</v>
+      </c>
+      <c r="JS7" t="s" s="2055">
         <v>36</v>
       </c>
-      <c r="JU7" t="s" s="1997">
+      <c r="JT7" t="s" s="2056">
         <v>37</v>
       </c>
-      <c r="JV7" t="s" s="1998">
+      <c r="JU7" t="s" s="2057">
         <v>38</v>
       </c>
-      <c r="JW7" t="s" s="1999">
+      <c r="JV7" t="s" s="2058">
         <v>39</v>
       </c>
-      <c r="JX7" t="s" s="2000">
+      <c r="JW7" t="s" s="2059">
         <v>40</v>
       </c>
-      <c r="JY7" t="s" s="2001">
+      <c r="JX7" t="s" s="2060">
         <v>41</v>
       </c>
-      <c r="JZ7" t="s" s="2002">
+      <c r="JY7" t="s" s="2061">
         <v>42</v>
       </c>
-      <c r="KA7" t="s" s="2003">
+      <c r="JZ7" t="s" s="2062">
         <v>43</v>
       </c>
-      <c r="KB7" t="s" s="2004">
+      <c r="KA7" t="s" s="2063">
         <v>44</v>
       </c>
-      <c r="KC7" t="s" s="2005">
+      <c r="KB7" t="s" s="2064">
         <v>45</v>
       </c>
-      <c r="KD7" t="s" s="2006">
+      <c r="KC7" t="s" s="2065">
         <v>46</v>
       </c>
-      <c r="KE7" t="s" s="2007">
-        <v>35</v>
-      </c>
-      <c r="KF7" t="s" s="2008">
+      <c r="KD7" t="s" s="2066">
+        <v>47</v>
+      </c>
+      <c r="KE7" t="s" s="2067">
         <v>36</v>
       </c>
-      <c r="KG7" t="s" s="2009">
+      <c r="KF7" t="s" s="2068">
         <v>37</v>
       </c>
-      <c r="KH7" t="s" s="2010">
+      <c r="KG7" t="s" s="2069">
         <v>38</v>
       </c>
-      <c r="KI7" t="s" s="2011">
+      <c r="KH7" t="s" s="2070">
         <v>39</v>
       </c>
-      <c r="KJ7" t="s" s="2012">
+      <c r="KI7" t="s" s="2071">
         <v>40</v>
       </c>
-      <c r="KK7" t="s" s="2013">
+      <c r="KJ7" t="s" s="2072">
         <v>41</v>
       </c>
-      <c r="KL7" t="s" s="2014">
+      <c r="KK7" t="s" s="2073">
         <v>42</v>
       </c>
-      <c r="KM7" t="s" s="2015">
+      <c r="KL7" t="s" s="2074">
         <v>43</v>
       </c>
-      <c r="KN7" t="s" s="2016">
+      <c r="KM7" t="s" s="2075">
         <v>44</v>
       </c>
-      <c r="KO7" t="s" s="2017">
+      <c r="KN7" t="s" s="2076">
         <v>45</v>
       </c>
-      <c r="KP7" t="s" s="2018">
+      <c r="KO7" t="s" s="2077">
         <v>46</v>
       </c>
-      <c r="KQ7" t="s" s="2019">
-        <v>35</v>
-      </c>
-      <c r="KR7" t="s" s="2020">
+      <c r="KP7" t="s" s="2078">
+        <v>47</v>
+      </c>
+      <c r="KQ7" t="s" s="2079">
         <v>36</v>
       </c>
-      <c r="KS7" t="s" s="2021">
+      <c r="KR7" t="s" s="2080">
         <v>37</v>
       </c>
-      <c r="KT7" t="s" s="2022">
+      <c r="KS7" t="s" s="2081">
         <v>38</v>
       </c>
-      <c r="KU7" t="s" s="2023">
+      <c r="KT7" t="s" s="2082">
         <v>39</v>
       </c>
-      <c r="KV7" t="s" s="2024">
+      <c r="KU7" t="s" s="2083">
         <v>40</v>
       </c>
-      <c r="KW7" t="s" s="2025">
+      <c r="KV7" t="s" s="2084">
         <v>41</v>
       </c>
-      <c r="KX7" t="s" s="2026">
+      <c r="KW7" t="s" s="2085">
         <v>42</v>
       </c>
-      <c r="KY7" t="s" s="2027">
+      <c r="KX7" t="s" s="2086">
         <v>43</v>
       </c>
-      <c r="KZ7" t="s" s="2028">
+      <c r="KY7" t="s" s="2087">
         <v>44</v>
       </c>
-      <c r="LA7" t="s" s="2029">
+      <c r="KZ7" t="s" s="2088">
         <v>45</v>
       </c>
-      <c r="LB7" t="s" s="2030">
+      <c r="LA7" t="s" s="2089">
         <v>46</v>
       </c>
-      <c r="LC7" t="s" s="2031">
-        <v>35</v>
-      </c>
-      <c r="LD7" t="s" s="2032">
+      <c r="LB7" t="s" s="2090">
+        <v>47</v>
+      </c>
+      <c r="LC7" t="s" s="2091">
         <v>36</v>
       </c>
-      <c r="LE7" t="s" s="2033">
+      <c r="LD7" t="s" s="2092">
         <v>37</v>
       </c>
-      <c r="LF7" t="s" s="2034">
+      <c r="LE7" t="s" s="2093">
         <v>38</v>
       </c>
-      <c r="LG7" t="s" s="2035">
+      <c r="LF7" t="s" s="2094">
         <v>39</v>
       </c>
-      <c r="LH7" t="s" s="2036">
+      <c r="LG7" t="s" s="2095">
         <v>40</v>
       </c>
-      <c r="LI7" t="s" s="2037">
+      <c r="LH7" t="s" s="2096">
         <v>41</v>
       </c>
-      <c r="LJ7" t="s" s="2038">
+      <c r="LI7" t="s" s="2097">
         <v>42</v>
       </c>
-      <c r="LK7" t="s" s="2039">
+      <c r="LJ7" t="s" s="2098">
         <v>43</v>
       </c>
-      <c r="LL7" t="s" s="2040">
+      <c r="LK7" t="s" s="2099">
         <v>44</v>
       </c>
-      <c r="LM7" t="s" s="2041">
+      <c r="LL7" t="s" s="2100">
         <v>45</v>
       </c>
-      <c r="LN7" t="s" s="2042">
+      <c r="LM7" t="s" s="2101">
         <v>46</v>
       </c>
-      <c r="LO7" t="s" s="2043">
-        <v>35</v>
-      </c>
-      <c r="LP7" t="s" s="2044">
+      <c r="LN7" t="s" s="2102">
+        <v>47</v>
+      </c>
+      <c r="LO7" t="s" s="2103">
         <v>36</v>
       </c>
-      <c r="LQ7" t="s" s="2045">
+      <c r="LP7" t="s" s="2104">
         <v>37</v>
       </c>
-      <c r="LR7" t="s" s="2046">
+      <c r="LQ7" t="s" s="2105">
         <v>38</v>
       </c>
-      <c r="LS7" t="s" s="2047">
+      <c r="LR7" t="s" s="2106">
         <v>39</v>
       </c>
-      <c r="LT7" t="s" s="2048">
+      <c r="LS7" t="s" s="2107">
         <v>40</v>
       </c>
-      <c r="LU7" t="s" s="2049">
+      <c r="LT7" t="s" s="2108">
         <v>41</v>
       </c>
-      <c r="LV7" t="s" s="2050">
+      <c r="LU7" t="s" s="2109">
         <v>42</v>
       </c>
-      <c r="LW7" t="s" s="2051">
+      <c r="LV7" t="s" s="2110">
         <v>43</v>
       </c>
-      <c r="LX7" t="s" s="2052">
+      <c r="LW7" t="s" s="2111">
         <v>44</v>
       </c>
-      <c r="LY7" t="s" s="2053">
+      <c r="LX7" t="s" s="2112">
         <v>45</v>
       </c>
-      <c r="LZ7" t="s" s="2054">
+      <c r="LY7" t="s" s="2113">
         <v>46</v>
+      </c>
+      <c r="LZ7" t="s" s="2114">
+        <v>47</v>
+      </c>
+      <c r="MA7" t="s" s="2115">
+        <v>36</v>
+      </c>
+      <c r="MB7" t="s" s="2116">
+        <v>37</v>
+      </c>
+      <c r="MC7" t="s" s="2117">
+        <v>38</v>
+      </c>
+      <c r="MD7" t="s" s="2118">
+        <v>39</v>
+      </c>
+      <c r="ME7" t="s" s="2119">
+        <v>40</v>
+      </c>
+      <c r="MF7" t="s" s="2120">
+        <v>41</v>
+      </c>
+      <c r="MG7" t="s" s="2121">
+        <v>42</v>
+      </c>
+      <c r="MH7" t="s" s="2122">
+        <v>43</v>
+      </c>
+      <c r="MI7" t="s" s="2123">
+        <v>44</v>
+      </c>
+      <c r="MJ7" t="s" s="2124">
+        <v>45</v>
+      </c>
+      <c r="MK7" t="s" s="2125">
+        <v>46</v>
+      </c>
+      <c r="ML7" t="s" s="2126">
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="33.75" customHeight="true">
       <c r="A8" t="s" s="14">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>124.9</v>
@@ -12271,7 +12638,7 @@
         <v>104.1</v>
       </c>
       <c r="LP9" t="n" s="10">
-        <v>103.2</v>
+        <v>103.6</v>
       </c>
       <c r="LQ9" t="n" s="10">
         <v>104.4</v>
@@ -12280,7 +12647,7 @@
         <v>104.5</v>
       </c>
       <c r="LS9" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="LT9" t="n" s="10">
         <v>105.0</v>
@@ -12292,60 +12659,96 @@
         <v>105.6</v>
       </c>
       <c r="LW9" t="n" s="10">
-        <v>106.0</v>
-      </c>
-      <c r="LX9" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY9" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ9" t="s" s="10">
-        <v>50</v>
+        <v>106.1</v>
+      </c>
+      <c r="LX9" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="LY9" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="LZ9" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="MA9" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="MB9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK9" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML9" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O10" t="n" s="10">
         <v>-0.8</v>
@@ -12771,7 +13174,7 @@
         <v>-0.1</v>
       </c>
       <c r="EZ10" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FA10" t="n" s="10">
         <v>0.3</v>
@@ -12780,7 +13183,7 @@
         <v>0.1</v>
       </c>
       <c r="FC10" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FD10" t="n" s="10">
         <v>0.1</v>
@@ -13032,10 +13435,10 @@
         <v>0.2</v>
       </c>
       <c r="II10" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IJ10" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IK10" t="n" s="10">
         <v>0.3</v>
@@ -13113,7 +13516,7 @@
         <v>0.1</v>
       </c>
       <c r="JJ10" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JK10" t="n" s="10">
         <v>0.2</v>
@@ -13287,7 +13690,7 @@
         <v>-1.2</v>
       </c>
       <c r="LP10" t="n" s="10">
-        <v>-2.2</v>
+        <v>-1.8</v>
       </c>
       <c r="LQ10" t="n" s="10">
         <v>-1.0</v>
@@ -13296,7 +13699,7 @@
         <v>-0.4</v>
       </c>
       <c r="LS10" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="LT10" t="n" s="10">
         <v>0.6</v>
@@ -13310,22 +13713,58 @@
       <c r="LW10" t="n" s="10">
         <v>1.0</v>
       </c>
-      <c r="LX10" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY10" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ10" t="s" s="10">
-        <v>50</v>
+      <c r="LX10" t="n" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="LY10" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="LZ10" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="MA10" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="MB10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK10" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML10" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>130.1</v>
@@ -14300,84 +14739,120 @@
         <v>105.2</v>
       </c>
       <c r="LO11" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP11" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ11" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR11" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS11" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT11" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU11" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV11" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW11" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX11" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY11" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ11" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA11" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK11" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML11" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O12" t="n" s="10">
         <v>-0.8</v>
@@ -14944,7 +15419,7 @@
         <v>-0.2</v>
       </c>
       <c r="GU12" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GV12" t="n" s="10">
         <v>0.4</v>
@@ -15043,10 +15518,10 @@
         <v>0.3</v>
       </c>
       <c r="IB12" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IC12" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="ID12" t="n" s="10">
         <v>-0.1</v>
@@ -15064,7 +15539,7 @@
         <v>0.1</v>
       </c>
       <c r="II12" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IJ12" t="n" s="10">
         <v>0.1</v>
@@ -15316,48 +15791,84 @@
         <v>-0.8</v>
       </c>
       <c r="LO12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW12" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX12" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY12" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ12" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA12" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK12" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML12" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>107.4</v>
@@ -16332,84 +16843,120 @@
         <v>103.0</v>
       </c>
       <c r="LO13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW13" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX13" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY13" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ13" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA13" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK13" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML13" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N14" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O14" t="n" s="10">
         <v>-0.7</v>
@@ -16445,7 +16992,7 @@
         <v>-1.6</v>
       </c>
       <c r="Z14" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n" s="10">
         <v>0.6</v>
@@ -16610,7 +17157,7 @@
         <v>-0.5</v>
       </c>
       <c r="CC14" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CD14" t="n" s="10">
         <v>-0.1</v>
@@ -16694,7 +17241,7 @@
         <v>-1.2</v>
       </c>
       <c r="DE14" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="DF14" t="n" s="10">
         <v>-1.1</v>
@@ -16781,13 +17328,13 @@
         <v>0.1</v>
       </c>
       <c r="EH14" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="EI14" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="EJ14" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="EK14" t="n" s="10">
         <v>0.7</v>
@@ -16820,7 +17367,7 @@
         <v>-0.1</v>
       </c>
       <c r="EU14" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="EV14" t="n" s="10">
         <v>0.9</v>
@@ -17153,7 +17700,7 @@
         <v>0.4</v>
       </c>
       <c r="JB14" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JC14" t="n" s="10">
         <v>-0.1</v>
@@ -17348,53 +17895,89 @@
         <v>-1.8</v>
       </c>
       <c r="LO14" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP14" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ14" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR14" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS14" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT14" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU14" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV14" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW14" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX14" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY14" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ14" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA14" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK14" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML14" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="33.75" customHeight="true">
       <c r="A15" t="s" s="14">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n" s="10">
         <v>133.0</v>
@@ -18390,63 +18973,99 @@
         <v>100.6</v>
       </c>
       <c r="LV16" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="LW16" t="n" s="10">
-        <v>100.2</v>
-      </c>
-      <c r="LX16" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY16" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ16" t="s" s="10">
-        <v>50</v>
+        <v>100.3</v>
+      </c>
+      <c r="LX16" t="n" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="LY16" t="n" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="LZ16" t="n" s="10">
+        <v>97.8</v>
+      </c>
+      <c r="MA16" t="n" s="10">
+        <v>99.2</v>
+      </c>
+      <c r="MB16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK16" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML16" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N17" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" t="n" s="10">
         <v>-4.7</v>
@@ -18596,7 +19215,7 @@
         <v>-0.7</v>
       </c>
       <c r="BL17" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BM17" t="n" s="10">
         <v>-0.8</v>
@@ -18968,7 +19587,7 @@
         <v>0.2</v>
       </c>
       <c r="GF17" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GG17" t="n" s="10">
         <v>1.2</v>
@@ -19076,7 +19695,7 @@
         <v>-0.6</v>
       </c>
       <c r="HP17" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="HQ17" t="n" s="10">
         <v>0.2</v>
@@ -19187,7 +19806,7 @@
         <v>0.5</v>
       </c>
       <c r="JA17" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JB17" t="n" s="10">
         <v>-0.5</v>
@@ -19298,7 +19917,7 @@
         <v>0.9</v>
       </c>
       <c r="KL17" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="KM17" t="n" s="10">
         <v>0.3</v>
@@ -19406,27 +20025,63 @@
         <v>2.2</v>
       </c>
       <c r="LV17" t="n" s="10">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="LW17" t="n" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="LX17" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY17" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ17" t="s" s="10">
-        <v>50</v>
+        <v>1.7</v>
+      </c>
+      <c r="LX17" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="LY17" t="n" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="LZ17" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="MA17" t="n" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="MB17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML17" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n" s="10">
         <v>141.5</v>
@@ -20401,84 +21056,120 @@
         <v>94.0</v>
       </c>
       <c r="LO18" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP18" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ18" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR18" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS18" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT18" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU18" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV18" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW18" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX18" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY18" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ18" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA18" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML18" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N19" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" t="n" s="10">
         <v>-5.9</v>
@@ -21000,7 +21691,7 @@
         <v>0.5</v>
       </c>
       <c r="GF19" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GG19" t="n" s="10">
         <v>1.4</v>
@@ -21048,7 +21739,7 @@
         <v>0.3</v>
       </c>
       <c r="GV19" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GW19" t="n" s="10">
         <v>-0.4</v>
@@ -21318,7 +22009,7 @@
         <v>-0.2</v>
       </c>
       <c r="KH19" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="KI19" t="n" s="10">
         <v>-0.2</v>
@@ -21327,7 +22018,7 @@
         <v>0.4</v>
       </c>
       <c r="KK19" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="KL19" t="n" s="10">
         <v>-0.8</v>
@@ -21339,7 +22030,7 @@
         <v>0.1</v>
       </c>
       <c r="KO19" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="KP19" t="n" s="10">
         <v>0.1</v>
@@ -21363,22 +22054,22 @@
         <v>-0.1</v>
       </c>
       <c r="KW19" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="KX19" t="n" s="10">
         <v>0.5</v>
       </c>
       <c r="KY19" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="KZ19" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="LA19" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="LB19" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="LC19" t="n" s="10">
         <v>-0.2</v>
@@ -21417,48 +22108,84 @@
         <v>0.4</v>
       </c>
       <c r="LO19" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP19" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ19" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR19" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS19" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT19" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU19" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV19" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW19" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX19" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY19" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ19" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA19" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK19" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML19" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n" s="10">
         <v>110.0</v>
@@ -22433,84 +23160,120 @@
         <v>104.2</v>
       </c>
       <c r="LO20" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP20" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ20" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR20" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS20" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT20" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU20" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV20" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW20" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX20" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY20" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ20" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA20" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK20" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML20" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N21" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O21" t="n" s="10">
         <v>-0.2</v>
@@ -22795,7 +23558,7 @@
         <v>1.8</v>
       </c>
       <c r="DE21" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="DF21" t="n" s="10">
         <v>-0.8</v>
@@ -23020,7 +23783,7 @@
         <v>-1.6</v>
       </c>
       <c r="GB21" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GC21" t="n" s="10">
         <v>-0.6</v>
@@ -23041,7 +23804,7 @@
         <v>1.6</v>
       </c>
       <c r="GI21" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GJ21" t="n" s="10">
         <v>0.7</v>
@@ -23074,7 +23837,7 @@
         <v>-0.8</v>
       </c>
       <c r="GT21" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GU21" t="n" s="10">
         <v>0.9</v>
@@ -23290,7 +24053,7 @@
         <v>-0.5</v>
       </c>
       <c r="JN21" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JO21" t="n" s="10">
         <v>0.9</v>
@@ -23449,53 +24212,89 @@
         <v>1.1</v>
       </c>
       <c r="LO21" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP21" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ21" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR21" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS21" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT21" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU21" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV21" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW21" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX21" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY21" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ21" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA21" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK21" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML21" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="33.75" customHeight="true">
       <c r="A22" t="s" s="14">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="n" s="10">
         <v>147.8</v>
@@ -24476,7 +25275,7 @@
         <v>110.8</v>
       </c>
       <c r="LQ23" t="n" s="10">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="LR23" t="n" s="10">
         <v>111.5</v>
@@ -24488,66 +25287,102 @@
         <v>112.7</v>
       </c>
       <c r="LU23" t="n" s="10">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="LV23" t="n" s="10">
-        <v>113.5</v>
+        <v>113.6</v>
       </c>
       <c r="LW23" t="n" s="10">
-        <v>113.7</v>
-      </c>
-      <c r="LX23" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY23" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ23" t="s" s="10">
-        <v>50</v>
+        <v>113.8</v>
+      </c>
+      <c r="LX23" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="LY23" t="n" s="10">
+        <v>114.4</v>
+      </c>
+      <c r="LZ23" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="MA23" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="MB23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK23" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML23" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N24" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O24" t="n" s="10">
         <v>0.3</v>
@@ -25090,7 +25925,7 @@
         <v>-7.1</v>
       </c>
       <c r="GM24" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GN24" t="n" s="10">
         <v>0.6</v>
@@ -25108,7 +25943,7 @@
         <v>0.3</v>
       </c>
       <c r="GS24" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GT24" t="n" s="10">
         <v>0.5</v>
@@ -25492,7 +26327,7 @@
         <v>-2.4</v>
       </c>
       <c r="LQ24" t="n" s="10">
-        <v>-1.9</v>
+        <v>-2.0</v>
       </c>
       <c r="LR24" t="n" s="10">
         <v>-0.9</v>
@@ -25504,30 +26339,66 @@
         <v>0.7</v>
       </c>
       <c r="LU24" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="LV24" t="n" s="10">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="LW24" t="n" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="LX24" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY24" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ24" t="s" s="10">
-        <v>50</v>
+        <v>1.0</v>
+      </c>
+      <c r="LX24" t="n" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="LY24" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="LZ24" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="MA24" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="MB24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK24" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML24" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n" s="10">
         <v>152.1</v>
@@ -26502,84 +27373,120 @@
         <v>112.1</v>
       </c>
       <c r="LO25" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP25" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ25" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR25" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS25" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT25" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU25" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV25" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW25" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX25" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY25" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ25" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA25" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK25" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML25" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N26" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O26" t="n" s="10">
         <v>0.1</v>
@@ -27152,7 +28059,7 @@
         <v>0.2</v>
       </c>
       <c r="GW26" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GX26" t="n" s="10">
         <v>0.5</v>
@@ -27224,7 +28131,7 @@
         <v>-0.3</v>
       </c>
       <c r="HU26" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="HV26" t="n" s="10">
         <v>-0.1</v>
@@ -27254,7 +28161,7 @@
         <v>-0.5</v>
       </c>
       <c r="IE26" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IF26" t="n" s="10">
         <v>0.2</v>
@@ -27518,48 +28425,84 @@
         <v>-1.6</v>
       </c>
       <c r="LO26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX26" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY26" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ26" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA26" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK26" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML26" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n" s="10">
         <v>136.7</v>
@@ -28534,84 +29477,120 @@
         <v>111.1</v>
       </c>
       <c r="LO27" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP27" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ27" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR27" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS27" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT27" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU27" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV27" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW27" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX27" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY27" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ27" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA27" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK27" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML27" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N28" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O28" t="n" s="10">
         <v>1.0</v>
@@ -28989,7 +29968,7 @@
         <v>2.0</v>
       </c>
       <c r="EJ28" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="EK28" t="n" s="10">
         <v>-2.9</v>
@@ -29058,7 +30037,7 @@
         <v>-1.1</v>
       </c>
       <c r="FG28" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FH28" t="n" s="10">
         <v>-3.0</v>
@@ -29376,7 +30355,7 @@
         <v>0.2</v>
       </c>
       <c r="JI28" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JJ28" t="n" s="10">
         <v>0.4</v>
@@ -29550,53 +30529,89 @@
         <v>-2.4</v>
       </c>
       <c r="LO28" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP28" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ28" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR28" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS28" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT28" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU28" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV28" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW28" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX28" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY28" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ28" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA28" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK28" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML28" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="33.75" customHeight="true">
       <c r="A29" t="s" s="14">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="n" s="10">
         <v>125.8</v>
@@ -30592,63 +31607,99 @@
         <v>102.9</v>
       </c>
       <c r="LV30" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="LW30" t="n" s="10">
-        <v>104.1</v>
-      </c>
-      <c r="LX30" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY30" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ30" t="s" s="10">
-        <v>50</v>
+        <v>104.3</v>
+      </c>
+      <c r="LX30" t="n" s="10">
+        <v>104.4</v>
+      </c>
+      <c r="LY30" t="n" s="10">
+        <v>104.8</v>
+      </c>
+      <c r="LZ30" t="n" s="10">
+        <v>104.9</v>
+      </c>
+      <c r="MA30" t="n" s="10">
+        <v>105.0</v>
+      </c>
+      <c r="MB30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK30" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML30" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N31" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O31" t="n" s="10">
         <v>-2.7</v>
@@ -30858,7 +31909,7 @@
         <v>0.3</v>
       </c>
       <c r="CF31" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CG31" t="n" s="10">
         <v>0.1</v>
@@ -31065,10 +32116,10 @@
         <v>-0.7</v>
       </c>
       <c r="EW31" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="EX31" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="EY31" t="n" s="10">
         <v>0.4</v>
@@ -31149,7 +32200,7 @@
         <v>1.0</v>
       </c>
       <c r="FY31" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FZ31" t="n" s="10">
         <v>-1.0</v>
@@ -31290,7 +32341,7 @@
         <v>-0.1</v>
       </c>
       <c r="HT31" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="HU31" t="n" s="10">
         <v>-0.1</v>
@@ -31341,7 +32392,7 @@
         <v>-0.1</v>
       </c>
       <c r="IK31" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IL31" t="n" s="10">
         <v>-0.2</v>
@@ -31350,7 +32401,7 @@
         <v>-0.1</v>
       </c>
       <c r="IN31" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IO31" t="n" s="10">
         <v>-0.1</v>
@@ -31416,7 +32467,7 @@
         <v>0.1</v>
       </c>
       <c r="JJ31" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JK31" t="n" s="10">
         <v>0.2</v>
@@ -31608,27 +32659,63 @@
         <v>0.4</v>
       </c>
       <c r="LV31" t="n" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="LW31" t="n" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="LX31" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY31" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ31" t="s" s="10">
-        <v>50</v>
+        <v>1.5</v>
+      </c>
+      <c r="LX31" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="LY31" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="LZ31" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="MA31" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="MB31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK31" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML31" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="n" s="10">
         <v>131.6</v>
@@ -32603,84 +33690,120 @@
         <v>103.4</v>
       </c>
       <c r="LO32" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP32" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ32" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR32" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS32" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT32" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU32" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV32" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW32" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX32" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY32" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ32" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA32" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK32" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML32" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N33" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O33" t="n" s="10">
         <v>-3.2</v>
@@ -32935,10 +34058,10 @@
         <v>-1.8</v>
       </c>
       <c r="CU33" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CV33" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CW33" t="n" s="10">
         <v>-0.7</v>
@@ -33103,7 +34226,7 @@
         <v>-0.4</v>
       </c>
       <c r="EY33" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="EZ33" t="n" s="10">
         <v>-0.1</v>
@@ -33139,7 +34262,7 @@
         <v>-0.4</v>
       </c>
       <c r="FK33" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FL33" t="n" s="10">
         <v>-0.1</v>
@@ -33373,7 +34496,7 @@
         <v>-0.1</v>
       </c>
       <c r="IK33" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IL33" t="n" s="10">
         <v>-0.2</v>
@@ -33382,10 +34505,10 @@
         <v>-0.1</v>
       </c>
       <c r="IN33" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IO33" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IP33" t="n" s="10">
         <v>-0.2</v>
@@ -33433,7 +34556,7 @@
         <v>0.1</v>
       </c>
       <c r="JE33" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JF33" t="n" s="10">
         <v>0.2</v>
@@ -33619,48 +34742,84 @@
         <v>-1.5</v>
       </c>
       <c r="LO33" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP33" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ33" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR33" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS33" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT33" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU33" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV33" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW33" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX33" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY33" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ33" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA33" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK33" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML33" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="n" s="10">
         <v>110.7</v>
@@ -34635,84 +35794,120 @@
         <v>100.9</v>
       </c>
       <c r="LO34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW34" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX34" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY34" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ34" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA34" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK34" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML34" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N35" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O35" t="n" s="10">
         <v>-1.7</v>
@@ -34841,7 +36036,7 @@
         <v>-0.7</v>
       </c>
       <c r="BE35" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BF35" t="n" s="10">
         <v>-0.8</v>
@@ -35360,10 +36555,10 @@
         <v>0.7</v>
       </c>
       <c r="HV35" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="HW35" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="HX35" t="n" s="10">
         <v>0.5</v>
@@ -35396,7 +36591,7 @@
         <v>-0.5</v>
       </c>
       <c r="IH35" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="II35" t="n" s="10">
         <v>0.1</v>
@@ -35408,7 +36603,7 @@
         <v>0.1</v>
       </c>
       <c r="IL35" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IM35" t="n" s="10">
         <v>-0.2</v>
@@ -35456,7 +36651,7 @@
         <v>0.3</v>
       </c>
       <c r="JB35" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JC35" t="n" s="10">
         <v>-0.1</v>
@@ -35483,7 +36678,7 @@
         <v>-0.4</v>
       </c>
       <c r="JK35" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JL35" t="n" s="10">
         <v>0.1</v>
@@ -35567,7 +36762,7 @@
         <v>0.2</v>
       </c>
       <c r="KM35" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="KN35" t="n" s="10">
         <v>1.1</v>
@@ -35651,53 +36846,89 @@
         <v>-3.4</v>
       </c>
       <c r="LO35" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP35" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ35" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR35" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS35" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT35" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU35" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV35" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW35" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX35" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY35" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ35" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA35" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK35" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML35" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="33.75" customHeight="true">
       <c r="A36" t="s" s="14">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="n" s="10">
         <v>124.6</v>
@@ -36675,10 +37906,10 @@
         <v>101.3</v>
       </c>
       <c r="LP37" t="n" s="10">
-        <v>96.8</v>
+        <v>101.3</v>
       </c>
       <c r="LQ37" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="LR37" t="n" s="10">
         <v>101.0</v>
@@ -36693,63 +37924,99 @@
         <v>101.3</v>
       </c>
       <c r="LV37" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="LW37" t="n" s="10">
-        <v>102.0</v>
-      </c>
-      <c r="LX37" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY37" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ37" t="s" s="10">
-        <v>50</v>
+        <v>101.9</v>
+      </c>
+      <c r="LX37" t="n" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="LY37" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="LZ37" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="MA37" t="n" s="10">
+        <v>102.4</v>
+      </c>
+      <c r="MB37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK37" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML37" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N38" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O38" t="n" s="10">
         <v>-2.7</v>
@@ -37457,7 +38724,7 @@
         <v>0.1</v>
       </c>
       <c r="IP38" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IQ38" t="n" s="10">
         <v>0.6</v>
@@ -37691,10 +38958,10 @@
         <v>-1.0</v>
       </c>
       <c r="LP38" t="n" s="10">
-        <v>-5.7</v>
+        <v>-1.3</v>
       </c>
       <c r="LQ38" t="n" s="10">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="LR38" t="n" s="10">
         <v>-1.1</v>
@@ -37709,27 +38976,63 @@
         <v>0.3</v>
       </c>
       <c r="LV38" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="LW38" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="LX38" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY38" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ38" t="s" s="10">
-        <v>50</v>
+        <v>-0.3</v>
+      </c>
+      <c r="LX38" t="n" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="LY38" t="n" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="LZ38" t="n" s="10">
+        <v>-0.5</v>
+      </c>
+      <c r="MA38" t="n" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="MB38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK38" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML38" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="n" s="10">
         <v>125.7</v>
@@ -38704,84 +40007,120 @@
         <v>102.0</v>
       </c>
       <c r="LO39" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP39" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ39" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR39" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS39" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT39" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU39" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV39" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW39" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX39" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY39" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ39" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA39" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK39" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML39" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N40" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O40" t="n" s="10">
         <v>-1.1</v>
@@ -39579,7 +40918,7 @@
         <v>-0.6</v>
       </c>
       <c r="JT40" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JU40" t="n" s="10">
         <v>0.3</v>
@@ -39720,48 +41059,84 @@
         <v>0.0</v>
       </c>
       <c r="LO40" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP40" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ40" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR40" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS40" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT40" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU40" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV40" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW40" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX40" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY40" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ40" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA40" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK40" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML40" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="n" s="10">
         <v>119.8</v>
@@ -40736,84 +42111,120 @@
         <v>107.4</v>
       </c>
       <c r="LO41" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP41" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ41" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR41" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS41" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT41" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU41" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV41" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW41" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX41" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY41" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ41" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA41" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK41" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML41" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N42" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O42" t="n" s="10">
         <v>-15.6</v>
@@ -40858,7 +42269,7 @@
         <v>-6.4</v>
       </c>
       <c r="AC42" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD42" t="n" s="10">
         <v>-5.8</v>
@@ -41023,7 +42434,7 @@
         <v>0.1</v>
       </c>
       <c r="CF42" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CG42" t="n" s="10">
         <v>-7.0</v>
@@ -41485,7 +42896,7 @@
         <v>1.2</v>
       </c>
       <c r="ID42" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IE42" t="n" s="10">
         <v>-0.6</v>
@@ -41527,7 +42938,7 @@
         <v>0.8</v>
       </c>
       <c r="IR42" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IS42" t="n" s="10">
         <v>0.1</v>
@@ -41752,53 +43163,89 @@
         <v>0.0</v>
       </c>
       <c r="LO42" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP42" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ42" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR42" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS42" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT42" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU42" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV42" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW42" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX42" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY42" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ42" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA42" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK42" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML42" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="33.75" customHeight="true">
       <c r="A43" t="s" s="14">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" t="n" s="10">
         <v>95.6</v>
@@ -42791,66 +44238,102 @@
         <v>110.5</v>
       </c>
       <c r="LU44" t="n" s="10">
-        <v>110.3</v>
+        <v>110.2</v>
       </c>
       <c r="LV44" t="n" s="10">
-        <v>110.9</v>
+        <v>111.0</v>
       </c>
       <c r="LW44" t="n" s="10">
         <v>111.5</v>
       </c>
-      <c r="LX44" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY44" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ44" t="s" s="10">
-        <v>50</v>
+      <c r="LX44" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="LY44" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="LZ44" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="MA44" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="MB44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK44" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML44" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N45" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O45" t="n" s="10">
         <v>-0.1</v>
@@ -43249,7 +44732,7 @@
         <v>5.2</v>
       </c>
       <c r="EQ45" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="ER45" t="n" s="10">
         <v>-0.1</v>
@@ -43807,30 +45290,66 @@
         <v>0.8</v>
       </c>
       <c r="LU45" t="n" s="10">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="LV45" t="n" s="10">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="LW45" t="n" s="10">
         <v>1.3</v>
       </c>
-      <c r="LX45" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY45" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ45" t="s" s="10">
-        <v>50</v>
+      <c r="LX45" t="n" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="LY45" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="LZ45" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="MA45" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="MB45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK45" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML45" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="n" s="10">
         <v>96.0</v>
@@ -44805,84 +46324,120 @@
         <v>109.6</v>
       </c>
       <c r="LO46" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP46" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ46" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR46" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS46" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT46" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU46" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV46" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW46" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX46" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY46" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ46" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA46" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK46" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML46" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N47" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O47" t="n" s="10">
         <v>-1.1</v>
@@ -45059,7 +46614,7 @@
         <v>0.1</v>
       </c>
       <c r="BU47" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BV47" t="n" s="10">
         <v>-0.7</v>
@@ -45239,7 +46794,7 @@
         <v>-0.4</v>
       </c>
       <c r="EC47" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="ED47" t="n" s="10">
         <v>-0.6</v>
@@ -45293,7 +46848,7 @@
         <v>0.7</v>
       </c>
       <c r="EU47" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="EV47" t="n" s="10">
         <v>0.2</v>
@@ -45449,7 +47004,7 @@
         <v>-0.6</v>
       </c>
       <c r="GU47" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GV47" t="n" s="10">
         <v>0.9</v>
@@ -45821,48 +47376,84 @@
         <v>-1.1</v>
       </c>
       <c r="LO47" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP47" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ47" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR47" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS47" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT47" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU47" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV47" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW47" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX47" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY47" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ47" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA47" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK47" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML47" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n" s="10">
         <v>93.4</v>
@@ -46837,84 +48428,120 @@
         <v>110.2</v>
       </c>
       <c r="LO48" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP48" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ48" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR48" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS48" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT48" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU48" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV48" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW48" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX48" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY48" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ48" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA48" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK48" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML48" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N49" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O49" t="n" s="10">
         <v>6.2</v>
@@ -47511,7 +49138,7 @@
         <v>-1.3</v>
       </c>
       <c r="HE49" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="HF49" t="n" s="10">
         <v>3.4</v>
@@ -47853,53 +49480,89 @@
         <v>-1.2</v>
       </c>
       <c r="LO49" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP49" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ49" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR49" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS49" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT49" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU49" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV49" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW49" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX49" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY49" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ49" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA49" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK49" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML49" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="50" ht="33.75" customHeight="true">
       <c r="A50" t="s" s="14">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n" s="10">
         <v>126.8</v>
@@ -48880,10 +50543,10 @@
         <v>102.6</v>
       </c>
       <c r="LQ51" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="LR51" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="LS51" t="n" s="10">
         <v>104.0</v>
@@ -48895,63 +50558,99 @@
         <v>104.4</v>
       </c>
       <c r="LV51" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="LW51" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="LX51" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="LY51" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="LZ51" t="n" s="10">
         <v>105.1</v>
       </c>
-      <c r="LW51" t="n" s="10">
-        <v>105.6</v>
-      </c>
-      <c r="LX51" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY51" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ51" t="s" s="10">
-        <v>50</v>
+      <c r="MA51" t="n" s="10">
+        <v>104.9</v>
+      </c>
+      <c r="MB51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML51" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N52" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O52" t="n" s="10">
         <v>0.6</v>
@@ -48978,7 +50677,7 @@
         <v>0.1</v>
       </c>
       <c r="W52" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X52" t="n" s="10">
         <v>-0.4</v>
@@ -49698,7 +51397,7 @@
         <v>0.1</v>
       </c>
       <c r="JC52" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JD52" t="n" s="10">
         <v>0.2</v>
@@ -49896,10 +51595,10 @@
         <v>-1.9</v>
       </c>
       <c r="LQ52" t="n" s="10">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="LR52" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="LS52" t="n" s="10">
         <v>-0.4</v>
@@ -49911,27 +51610,63 @@
         <v>0.0</v>
       </c>
       <c r="LV52" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="LW52" t="n" s="10">
         <v>0.2</v>
       </c>
-      <c r="LW52" t="n" s="10">
+      <c r="LX52" t="n" s="10">
         <v>0.3</v>
       </c>
-      <c r="LX52" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LY52" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LZ52" t="s" s="10">
-        <v>50</v>
+      <c r="LY52" t="n" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="LZ52" t="n" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="MA52" t="n" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="MB52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK52" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML52" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="n" s="10">
         <v>129.3</v>
@@ -50906,84 +52641,120 @@
         <v>103.9</v>
       </c>
       <c r="LO53" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP53" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ53" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR53" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS53" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT53" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU53" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV53" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW53" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX53" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY53" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ53" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA53" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK53" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML53" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N54" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O54" t="n" s="10">
         <v>0.8</v>
@@ -51409,7 +53180,7 @@
         <v>0.4</v>
       </c>
       <c r="EZ54" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FA54" t="n" s="10">
         <v>0.2</v>
@@ -51430,7 +53201,7 @@
         <v>0.4</v>
       </c>
       <c r="FG54" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="FH54" t="n" s="10">
         <v>-0.1</v>
@@ -51544,7 +53315,7 @@
         <v>-0.6</v>
       </c>
       <c r="GS54" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GT54" t="n" s="10">
         <v>0.5</v>
@@ -51709,7 +53480,7 @@
         <v>0.1</v>
       </c>
       <c r="IV54" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IW54" t="n" s="10">
         <v>-0.1</v>
@@ -51718,7 +53489,7 @@
         <v>-0.1</v>
       </c>
       <c r="IY54" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IZ54" t="n" s="10">
         <v>0.1</v>
@@ -51727,10 +53498,10 @@
         <v>0.3</v>
       </c>
       <c r="JB54" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JC54" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JD54" t="n" s="10">
         <v>0.1</v>
@@ -51760,7 +53531,7 @@
         <v>0.4</v>
       </c>
       <c r="JM54" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="JN54" t="n" s="10">
         <v>0.3</v>
@@ -51922,48 +53693,84 @@
         <v>-0.4</v>
       </c>
       <c r="LO54" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP54" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ54" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR54" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS54" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT54" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU54" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV54" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW54" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX54" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY54" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ54" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA54" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK54" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML54" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="n" s="10">
         <v>113.5</v>
@@ -52938,84 +54745,120 @@
         <v>108.4</v>
       </c>
       <c r="LO55" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP55" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ55" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR55" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS55" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT55" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU55" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV55" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW55" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX55" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY55" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ55" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA55" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK55" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML55" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N56" t="s" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O56" t="n" s="10">
         <v>-2.1</v>
@@ -53420,7 +55263,7 @@
         <v>1.2</v>
       </c>
       <c r="ES56" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="ET56" t="n" s="10">
         <v>2.5</v>
@@ -53525,7 +55368,7 @@
         <v>1.1</v>
       </c>
       <c r="GB56" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GC56" t="n" s="10">
         <v>-0.4</v>
@@ -53600,7 +55443,7 @@
         <v>0.3</v>
       </c>
       <c r="HA56" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="HB56" t="n" s="10">
         <v>-0.6</v>
@@ -53693,13 +55536,13 @@
         <v>0.8</v>
       </c>
       <c r="IF56" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IG56" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="IH56" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="II56" t="n" s="10">
         <v>0.9</v>
@@ -53954,59 +55797,95 @@
         <v>0.5</v>
       </c>
       <c r="LO56" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LP56" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LQ56" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LR56" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LS56" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LT56" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LU56" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LV56" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LW56" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="LX56" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LY56" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="LZ56" t="s" s="10">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="MA56" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="MB56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MC56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MD56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ME56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MF56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MG56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MH56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MI56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MJ56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="MK56" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="ML56" t="s" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:LZ2"/>
-    <mergeCell ref="A3:LZ3"/>
+    <mergeCell ref="A2:ML2"/>
+    <mergeCell ref="A3:ML3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:LZ4"/>
+    <mergeCell ref="C4:ML4"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="O5:Z5"/>
     <mergeCell ref="AA5:AL5"/>
@@ -54035,6 +55914,7 @@
     <mergeCell ref="KQ5:LB5"/>
     <mergeCell ref="LC5:LN5"/>
     <mergeCell ref="LO5:LZ5"/>
+    <mergeCell ref="MA5:ML5"/>
     <mergeCell ref="C6:N6"/>
     <mergeCell ref="O6:Z6"/>
     <mergeCell ref="AA6:AL6"/>
@@ -54063,18 +55943,19 @@
     <mergeCell ref="KQ6:LB6"/>
     <mergeCell ref="LC6:LN6"/>
     <mergeCell ref="LO6:LZ6"/>
-    <mergeCell ref="A8:LZ8"/>
-    <mergeCell ref="A15:LZ15"/>
-    <mergeCell ref="A22:LZ22"/>
-    <mergeCell ref="A29:LZ29"/>
-    <mergeCell ref="A36:LZ36"/>
-    <mergeCell ref="A43:LZ43"/>
-    <mergeCell ref="A50:LZ50"/>
-    <mergeCell ref="A1:LZ1"/>
+    <mergeCell ref="MA6:ML6"/>
+    <mergeCell ref="A8:ML8"/>
+    <mergeCell ref="A15:ML15"/>
+    <mergeCell ref="A22:ML22"/>
+    <mergeCell ref="A29:ML29"/>
+    <mergeCell ref="A36:ML36"/>
+    <mergeCell ref="A43:ML43"/>
+    <mergeCell ref="A50:ML50"/>
+    <mergeCell ref="A1:ML1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:01:15&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:38:23&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>